--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_0_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177871.9634537069</v>
+        <v>200310.0660376691</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179890.8105076975</v>
+        <v>222774.538307847</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26043273.41102372</v>
+        <v>26191837.23347164</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4354203.995089386</v>
+        <v>4257410.076165312</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8069,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N3" t="n">
-        <v>103.0025334990966</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O3" t="n">
         <v>102.4042030119497</v>
@@ -8301,10 +8303,10 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M6" t="n">
-        <v>94.83491542012716</v>
+        <v>121.083316575</v>
       </c>
       <c r="N6" t="n">
-        <v>76.05941527020953</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O6" t="n">
         <v>102.4042030119497</v>
@@ -8541,7 +8543,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N9" t="n">
-        <v>64.85608296530633</v>
+        <v>103.0025334990966</v>
       </c>
       <c r="O9" t="n">
         <v>102.4042030119497</v>
@@ -8775,13 +8777,13 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M12" t="n">
-        <v>121.083316575</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N12" t="n">
-        <v>19.10373933697781</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O12" t="n">
-        <v>50.30088672752632</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P12" t="n">
         <v>82.80031984638366</v>
@@ -9009,13 +9011,13 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L15" t="n">
-        <v>58.22273991262165</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M15" t="n">
-        <v>121.083316575</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N15" t="n">
-        <v>19.10373933697781</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O15" t="n">
         <v>102.4042030119497</v>
@@ -9249,10 +9251,10 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M18" t="n">
-        <v>39.34781785249876</v>
+        <v>121.083316575</v>
       </c>
       <c r="N18" t="n">
-        <v>19.10373933697781</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O18" t="n">
         <v>102.4042030119497</v>
@@ -9486,10 +9488,10 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M21" t="n">
-        <v>121.083316575</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N21" t="n">
-        <v>19.10373933697781</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O21" t="n">
         <v>102.4042030119497</v>
@@ -9647,7 +9649,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O23" t="n">
         <v>99.00804712831379</v>
@@ -9720,13 +9722,13 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>58.22273991262165</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M24" t="n">
-        <v>121.083316575</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N24" t="n">
-        <v>124.6290173293239</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O24" t="n">
         <v>102.4042030119497</v>
@@ -9957,16 +9959,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>58.22273991262165</v>
+        <v>57.07593346819701</v>
       </c>
       <c r="M27" t="n">
-        <v>121.083316575</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N27" t="n">
-        <v>19.10373933697781</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O27" t="n">
-        <v>102.4042030119497</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P27" t="n">
         <v>82.80031984638366</v>
@@ -10121,7 +10123,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O29" t="n">
         <v>99.00804712831379</v>
@@ -10194,16 +10196,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L30" t="n">
-        <v>58.22273991262165</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M30" t="n">
         <v>121.083316575</v>
       </c>
       <c r="N30" t="n">
-        <v>124.6290173293239</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O30" t="n">
-        <v>50.30088672752632</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P30" t="n">
         <v>82.80031984638366</v>
@@ -10440,7 +10442,7 @@
         <v>124.6290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>102.4042030119497</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P33" t="n">
         <v>82.80031984638366</v>
@@ -10595,7 +10597,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O35" t="n">
         <v>99.00804712831379</v>
@@ -10668,7 +10670,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>96.41848977889939</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M36" t="n">
         <v>121.083316575</v>
@@ -10677,10 +10679,10 @@
         <v>124.6290173293239</v>
       </c>
       <c r="O36" t="n">
-        <v>102.4042030119497</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P36" t="n">
-        <v>82.80031984638366</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10832,7 +10834,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O38" t="n">
         <v>99.00804712831379</v>
@@ -10905,19 +10907,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>58.22273991262165</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M39" t="n">
         <v>121.083316575</v>
       </c>
       <c r="N39" t="n">
-        <v>19.10373933697781</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O39" t="n">
-        <v>50.30088672752632</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>68.93110769910052</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11069,7 +11071,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>113.7102003471159</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O41" t="n">
         <v>99.00804712831379</v>
@@ -11142,13 +11144,13 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>58.22273991262165</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M42" t="n">
-        <v>39.34781785249876</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N42" t="n">
-        <v>19.10373933697781</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O42" t="n">
         <v>102.4042030119497</v>
@@ -11303,10 +11305,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232903</v>
       </c>
       <c r="N44" t="n">
-        <v>113.7102003471159</v>
+        <v>83.98878642167108</v>
       </c>
       <c r="O44" t="n">
         <v>99.00804712831379</v>
@@ -11382,13 +11384,13 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M45" t="n">
-        <v>39.34781785249876</v>
+        <v>121.083316575</v>
       </c>
       <c r="N45" t="n">
-        <v>19.10373933697781</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O45" t="n">
-        <v>50.30088672752632</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P45" t="n">
         <v>82.80031984638366</v>
@@ -22559,49 +22561,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.9500466959368</v>
+        <v>423.10545754068</v>
       </c>
       <c r="H2" t="n">
-        <v>357.5402376039739</v>
+        <v>359.1318389177005</v>
       </c>
       <c r="I2" t="n">
-        <v>282.9498090659873</v>
+        <v>288.9412856579506</v>
       </c>
       <c r="J2" t="n">
-        <v>166.4804728462846</v>
+        <v>179.6707740303099</v>
       </c>
       <c r="K2" t="n">
-        <v>156.1709547060198</v>
+        <v>175.9397969480259</v>
       </c>
       <c r="L2" t="n">
-        <v>135.1920689991825</v>
+        <v>159.717065880999</v>
       </c>
       <c r="M2" t="n">
-        <v>107.598740283027</v>
+        <v>134.8875247750459</v>
       </c>
       <c r="N2" t="n">
-        <v>107.578401186134</v>
+        <v>135.3087467407796</v>
       </c>
       <c r="O2" t="n">
-        <v>129.6483220454851</v>
+        <v>155.8333010127153</v>
       </c>
       <c r="P2" t="n">
-        <v>162.452644445732</v>
+        <v>184.8009181833638</v>
       </c>
       <c r="Q2" t="n">
-        <v>200.7884889780648</v>
+        <v>217.5711118383298</v>
       </c>
       <c r="R2" t="n">
-        <v>257.9941946855963</v>
+        <v>267.7565211616979</v>
       </c>
       <c r="S2" t="n">
-        <v>252.8017650064723</v>
+        <v>256.3431896310585</v>
       </c>
       <c r="T2" t="n">
-        <v>222.712032836916</v>
+        <v>223.3923438097795</v>
       </c>
       <c r="U2" t="n">
-        <v>248.850391546474</v>
+        <v>248.8628244140534</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22638,49 +22640,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.4266721324923</v>
+        <v>161.5098242651302</v>
       </c>
       <c r="H3" t="n">
-        <v>141.7265670638711</v>
+        <v>142.5296416080314</v>
       </c>
       <c r="I3" t="n">
-        <v>131.1257536355219</v>
+        <v>133.9886669741497</v>
       </c>
       <c r="J3" t="n">
-        <v>120.3553762767449</v>
+        <v>128.2114292993411</v>
       </c>
       <c r="K3" t="n">
-        <v>77.5220676342224</v>
+        <v>90.94931354355442</v>
       </c>
       <c r="L3" t="n">
-        <v>31.84606879838253</v>
+        <v>49.90065794854366</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>21.06885395828317</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>24.64768941402779</v>
+        <v>44.43169704212175</v>
       </c>
       <c r="P3" t="n">
-        <v>47.73023641391228</v>
+        <v>63.60864672438022</v>
       </c>
       <c r="Q3" t="n">
-        <v>106.3803926892894</v>
+        <v>116.9946894800436</v>
       </c>
       <c r="R3" t="n">
-        <v>179.9541215291748</v>
+        <v>185.1168477994441</v>
       </c>
       <c r="S3" t="n">
-        <v>215.6697507169758</v>
+        <v>217.2142651104902</v>
       </c>
       <c r="T3" t="n">
-        <v>231.7547581384684</v>
+        <v>232.0899195853727</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6766403780998</v>
+        <v>249.6821109131418</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22717,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.5795418713374</v>
+        <v>169.6492538260798</v>
       </c>
       <c r="H4" t="n">
-        <v>170.6464146159834</v>
+        <v>171.2662172681476</v>
       </c>
       <c r="I4" t="n">
-        <v>178.115448587716</v>
+        <v>180.2118771903329</v>
       </c>
       <c r="J4" t="n">
-        <v>156.6831400104238</v>
+        <v>161.6117752107116</v>
       </c>
       <c r="K4" t="n">
-        <v>127.5656920941783</v>
+        <v>135.6649537451591</v>
       </c>
       <c r="L4" t="n">
-        <v>112.3324951017775</v>
+        <v>122.6967615368433</v>
       </c>
       <c r="M4" t="n">
-        <v>111.7527473925439</v>
+        <v>122.6804131709369</v>
       </c>
       <c r="N4" t="n">
-        <v>98.12412777701496</v>
+        <v>108.7919580877318</v>
       </c>
       <c r="O4" t="n">
-        <v>119.5130353242993</v>
+        <v>129.3665032546162</v>
       </c>
       <c r="P4" t="n">
-        <v>131.5947529506683</v>
+        <v>140.0260970042402</v>
       </c>
       <c r="Q4" t="n">
-        <v>180.5411270563561</v>
+        <v>186.3785526484676</v>
       </c>
       <c r="R4" t="n">
-        <v>236.5731236381951</v>
+        <v>239.7076266214307</v>
       </c>
       <c r="S4" t="n">
-        <v>249.7072101250491</v>
+        <v>250.9220993726962</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5614148862658</v>
+        <v>219.8592750565288</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2384069217048</v>
+        <v>291.2422093919635</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22796,49 +22798,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.7564297956197</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H5" t="n">
-        <v>355.5573585236008</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I5" t="n">
-        <v>275.4853935165098</v>
+        <v>282.9498090659873</v>
       </c>
       <c r="J5" t="n">
-        <v>150.0474804529905</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5421589223001</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L5" t="n">
-        <v>104.6378700023812</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M5" t="n">
-        <v>73.60130673521041</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N5" t="n">
-        <v>73.03085362029123</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O5" t="n">
-        <v>97.02605253217115</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P5" t="n">
-        <v>134.6102921589981</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q5" t="n">
-        <v>179.8800419339395</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R5" t="n">
-        <v>245.8319070710481</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S5" t="n">
-        <v>248.3897198904948</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T5" t="n">
-        <v>221.8644748557776</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U5" t="n">
-        <v>248.8349021944486</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22875,22 +22877,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.32307795795</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H6" t="n">
-        <v>140.7260654307912</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I6" t="n">
-        <v>127.5590243804457</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J6" t="n">
-        <v>110.5679985845671</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K6" t="n">
-        <v>60.79388024770772</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L6" t="n">
-        <v>9.35295647066954</v>
+        <v>31.84606879838253</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22899,25 +22901,25 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P6" t="n">
-        <v>27.94829268047185</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q6" t="n">
-        <v>93.15668718104254</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R6" t="n">
-        <v>173.5221954992565</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S6" t="n">
-        <v>213.7455343608933</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T6" t="n">
-        <v>231.3372009173964</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6698249718799</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22954,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.492691995355</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H7" t="n">
-        <v>169.8742402640668</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I7" t="n">
-        <v>175.503635953626</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J7" t="n">
-        <v>150.5428537784657</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K7" t="n">
-        <v>117.4753155936737</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L7" t="n">
-        <v>99.42028717617094</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M7" t="n">
-        <v>98.13863456013385</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N7" t="n">
-        <v>84.83372811872125</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O7" t="n">
-        <v>107.2372001263458</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P7" t="n">
-        <v>121.0906552227565</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q7" t="n">
-        <v>173.2686342593179</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R7" t="n">
-        <v>232.668037396294</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S7" t="n">
-        <v>248.1936536499734</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T7" t="n">
-        <v>219.1903290525226</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2336696557421</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23033,49 +23035,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.6759211308218</v>
+        <v>422.9500466959368</v>
       </c>
       <c r="H8" t="n">
-        <v>354.7328491602397</v>
+        <v>357.5402376039739</v>
       </c>
       <c r="I8" t="n">
-        <v>272.3815832168904</v>
+        <v>282.9498090659874</v>
       </c>
       <c r="J8" t="n">
-        <v>143.2144081641032</v>
+        <v>166.4804728462846</v>
       </c>
       <c r="K8" t="n">
-        <v>121.3011548525195</v>
+        <v>156.1709547060198</v>
       </c>
       <c r="L8" t="n">
-        <v>91.93299888229322</v>
+        <v>135.1920689991825</v>
       </c>
       <c r="M8" t="n">
-        <v>59.46468964752347</v>
+        <v>107.598740283027</v>
       </c>
       <c r="N8" t="n">
-        <v>58.66549128874738</v>
+        <v>107.578401186134</v>
       </c>
       <c r="O8" t="n">
-        <v>83.46124823621099</v>
+        <v>129.6483220454851</v>
       </c>
       <c r="P8" t="n">
-        <v>123.0330455252351</v>
+        <v>162.452644445732</v>
       </c>
       <c r="Q8" t="n">
-        <v>171.1860118582497</v>
+        <v>200.7884889780648</v>
       </c>
       <c r="R8" t="n">
-        <v>240.7746546559397</v>
+        <v>257.9941946855963</v>
       </c>
       <c r="S8" t="n">
-        <v>246.5551286914136</v>
+        <v>252.8017650064723</v>
       </c>
       <c r="T8" t="n">
-        <v>221.512048175625</v>
+        <v>222.712032836916</v>
       </c>
       <c r="U8" t="n">
-        <v>248.8284615012647</v>
+        <v>248.850391546474</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23112,22 +23114,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.2800020247046</v>
+        <v>161.4266721324923</v>
       </c>
       <c r="H9" t="n">
-        <v>140.310042601816</v>
+        <v>141.7265670638711</v>
       </c>
       <c r="I9" t="n">
-        <v>126.0759275559885</v>
+        <v>131.1257536355219</v>
       </c>
       <c r="J9" t="n">
-        <v>106.4982675405373</v>
+        <v>120.3553762767449</v>
       </c>
       <c r="K9" t="n">
-        <v>53.83806167623734</v>
+        <v>77.5220676342224</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>31.84606879838252</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23136,25 +23138,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>24.64768941402779</v>
       </c>
       <c r="P9" t="n">
-        <v>19.7226787259216</v>
+        <v>47.73023641391228</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.65808208817583</v>
+        <v>106.3803926892894</v>
       </c>
       <c r="R9" t="n">
-        <v>170.8477090474073</v>
+        <v>179.9541215291748</v>
       </c>
       <c r="S9" t="n">
-        <v>212.9454177938134</v>
+        <v>215.6697507169758</v>
       </c>
       <c r="T9" t="n">
-        <v>231.1635746776924</v>
+        <v>231.7547581384684</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6669910289033</v>
+        <v>249.6766403780998</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23191,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.4565785799364</v>
+        <v>169.5795418713374</v>
       </c>
       <c r="H10" t="n">
-        <v>169.5531591706183</v>
+        <v>170.6464146159834</v>
       </c>
       <c r="I10" t="n">
-        <v>174.4176070608574</v>
+        <v>178.115448587716</v>
       </c>
       <c r="J10" t="n">
-        <v>147.9896353083744</v>
+        <v>156.6831400104238</v>
       </c>
       <c r="K10" t="n">
-        <v>113.2795933295915</v>
+        <v>127.5656920941783</v>
       </c>
       <c r="L10" t="n">
-        <v>94.05120721476253</v>
+        <v>112.3324951017775</v>
       </c>
       <c r="M10" t="n">
-        <v>92.47769254138827</v>
+        <v>111.7527473925439</v>
       </c>
       <c r="N10" t="n">
-        <v>79.30739064835389</v>
+        <v>98.12412777701496</v>
       </c>
       <c r="O10" t="n">
-        <v>102.1327330088224</v>
+        <v>119.5130353242993</v>
       </c>
       <c r="P10" t="n">
-        <v>116.7229017797714</v>
+        <v>131.5947529506683</v>
       </c>
       <c r="Q10" t="n">
-        <v>170.2446281736794</v>
+        <v>180.5411270563561</v>
       </c>
       <c r="R10" t="n">
-        <v>231.0442469175655</v>
+        <v>236.5731236381951</v>
       </c>
       <c r="S10" t="n">
-        <v>247.5642953103611</v>
+        <v>249.7072101250491</v>
       </c>
       <c r="T10" t="n">
-        <v>219.0360262775525</v>
+        <v>219.5614148862658</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2316998330829</v>
+        <v>291.2384069217048</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23270,49 +23272,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>422.3471385867855</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H11" t="n">
-        <v>351.3657049311285</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I11" t="n">
-        <v>259.706194187933</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J11" t="n">
-        <v>115.309400717207</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K11" t="n">
-        <v>79.47878231656895</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L11" t="n">
-        <v>40.04864756429342</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M11" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>28.06508836972404</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P11" t="n">
-        <v>75.75370471464296</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q11" t="n">
-        <v>135.6811959059556</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R11" t="n">
-        <v>220.1217681741228</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S11" t="n">
-        <v>239.0629964691877</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T11" t="n">
-        <v>220.0728025891063</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U11" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,19 +23351,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H12" t="n">
-        <v>138.6110820684246</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I12" t="n">
-        <v>120.0192335563868</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J12" t="n">
-        <v>89.87823627360493</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K12" t="n">
-        <v>25.43178104141768</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>65.20279264048071</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R12" t="n">
-        <v>159.9255994603549</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S12" t="n">
-        <v>209.6778892475315</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T12" t="n">
-        <v>230.4545171253824</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.3090980494251</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H13" t="n">
-        <v>168.2419231811629</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I13" t="n">
-        <v>169.9824652887527</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J13" t="n">
-        <v>137.5627618012226</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K13" t="n">
-        <v>96.14503714836491</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L13" t="n">
-        <v>72.12487452401287</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M13" t="n">
-        <v>69.35944901768788</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N13" t="n">
-        <v>56.73884728383211</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O13" t="n">
-        <v>81.2870303870922</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P13" t="n">
-        <v>98.88580198047258</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q13" t="n">
-        <v>157.895144841498</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R13" t="n">
-        <v>224.4129859729374</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S13" t="n">
-        <v>244.9941118831771</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4058821926404</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,49 +23509,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>422.3471385867855</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H14" t="n">
-        <v>351.3657049311285</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I14" t="n">
-        <v>259.706194187933</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J14" t="n">
-        <v>115.309400717207</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K14" t="n">
-        <v>79.47878231656895</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L14" t="n">
-        <v>40.04864756429342</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M14" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>28.06508836972404</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P14" t="n">
-        <v>75.75370471464296</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.6811959059556</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R14" t="n">
-        <v>220.1217681741228</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S14" t="n">
-        <v>239.0629964691877</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T14" t="n">
-        <v>220.0728025891063</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U14" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,19 +23588,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H15" t="n">
-        <v>138.6110820684246</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I15" t="n">
-        <v>120.0192335563868</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J15" t="n">
-        <v>89.87823627360493</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K15" t="n">
-        <v>25.43178104141768</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>65.20279264048071</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R15" t="n">
-        <v>159.9255994603549</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S15" t="n">
-        <v>209.6778892475315</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T15" t="n">
-        <v>230.4545171253824</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.3090980494251</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H16" t="n">
-        <v>168.2419231811629</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I16" t="n">
-        <v>169.9824652887527</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J16" t="n">
-        <v>137.5627618012226</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K16" t="n">
-        <v>96.14503714836491</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L16" t="n">
-        <v>72.12487452401287</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M16" t="n">
-        <v>69.35944901768788</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N16" t="n">
-        <v>56.73884728383211</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O16" t="n">
-        <v>81.28703038709219</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P16" t="n">
-        <v>98.88580198047258</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q16" t="n">
-        <v>157.895144841498</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R16" t="n">
-        <v>224.4129859729374</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S16" t="n">
-        <v>244.9941118831771</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T16" t="n">
-        <v>218.4058821926404</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,49 +23746,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>422.3471385867855</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H17" t="n">
-        <v>351.3657049311285</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I17" t="n">
-        <v>259.706194187933</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J17" t="n">
-        <v>115.309400717207</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K17" t="n">
-        <v>79.47878231656895</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L17" t="n">
-        <v>40.04864756429342</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M17" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>28.06508836972404</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P17" t="n">
-        <v>75.75370471464296</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.6811959059556</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R17" t="n">
-        <v>220.1217681741228</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S17" t="n">
-        <v>239.0629964691877</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T17" t="n">
-        <v>220.0728025891063</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U17" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,19 +23825,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H18" t="n">
-        <v>138.6110820684246</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I18" t="n">
-        <v>120.0192335563868</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J18" t="n">
-        <v>89.87823627360493</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K18" t="n">
-        <v>25.43178104141768</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>65.20279264048071</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R18" t="n">
-        <v>159.9255994603549</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S18" t="n">
-        <v>209.6778892475315</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T18" t="n">
-        <v>230.4545171253824</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.3090980494251</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H19" t="n">
-        <v>168.2419231811629</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I19" t="n">
-        <v>169.9824652887527</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J19" t="n">
-        <v>137.5627618012226</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K19" t="n">
-        <v>96.14503714836491</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L19" t="n">
-        <v>72.12487452401287</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M19" t="n">
-        <v>69.35944901768788</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N19" t="n">
-        <v>56.73884728383211</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O19" t="n">
-        <v>81.2870303870922</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P19" t="n">
-        <v>98.88580198047258</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q19" t="n">
-        <v>157.895144841498</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R19" t="n">
-        <v>224.4129859729374</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S19" t="n">
-        <v>244.9941118831771</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T19" t="n">
-        <v>218.4058821926404</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,49 +23983,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>422.3471385867855</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H20" t="n">
-        <v>351.3657049311285</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I20" t="n">
-        <v>259.706194187933</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J20" t="n">
-        <v>115.309400717207</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K20" t="n">
-        <v>79.47878231656895</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L20" t="n">
-        <v>40.04864756429342</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M20" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>28.06508836972404</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P20" t="n">
-        <v>75.75370471464296</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.6811959059556</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R20" t="n">
-        <v>220.1217681741228</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S20" t="n">
-        <v>239.0629964691877</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T20" t="n">
-        <v>220.0728025891063</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U20" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,19 +24062,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H21" t="n">
-        <v>138.6110820684246</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I21" t="n">
-        <v>120.0192335563868</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J21" t="n">
-        <v>89.87823627360493</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K21" t="n">
-        <v>25.43178104141768</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>65.20279264048071</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R21" t="n">
-        <v>159.9255994603549</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S21" t="n">
-        <v>209.6778892475315</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T21" t="n">
-        <v>230.4545171253824</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.3090980494251</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H22" t="n">
-        <v>168.2419231811629</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I22" t="n">
-        <v>169.9824652887527</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J22" t="n">
-        <v>137.5627618012226</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K22" t="n">
-        <v>96.14503714836491</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L22" t="n">
-        <v>72.12487452401287</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M22" t="n">
-        <v>69.35944901768788</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N22" t="n">
-        <v>56.73884728383211</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O22" t="n">
-        <v>81.2870303870922</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P22" t="n">
-        <v>98.88580198047258</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q22" t="n">
-        <v>157.895144841498</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R22" t="n">
-        <v>224.4129859729374</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S22" t="n">
-        <v>244.9941118831771</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T22" t="n">
-        <v>218.4058821926404</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,49 +24220,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>422.3471385867855</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H23" t="n">
-        <v>351.3657049311285</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I23" t="n">
-        <v>259.706194187933</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J23" t="n">
-        <v>115.309400717207</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K23" t="n">
-        <v>79.47878231656895</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L23" t="n">
-        <v>40.04864756429342</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M23" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>28.06508836972404</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P23" t="n">
-        <v>75.75370471464296</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.6811959059556</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R23" t="n">
-        <v>220.1217681741228</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S23" t="n">
-        <v>239.0629964691877</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T23" t="n">
-        <v>220.0728025891063</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U23" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,19 +24299,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H24" t="n">
-        <v>138.6110820684246</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I24" t="n">
-        <v>120.0192335563868</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J24" t="n">
-        <v>89.87823627360493</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K24" t="n">
-        <v>25.43178104141768</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>65.20279264048071</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R24" t="n">
-        <v>159.9255994603549</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S24" t="n">
-        <v>209.6778892475315</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T24" t="n">
-        <v>230.4545171253824</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.3090980494251</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H25" t="n">
-        <v>168.2419231811629</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I25" t="n">
-        <v>169.9824652887527</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J25" t="n">
-        <v>137.5627618012226</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K25" t="n">
-        <v>96.14503714836491</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L25" t="n">
-        <v>72.12487452401287</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M25" t="n">
-        <v>69.35944901768788</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N25" t="n">
-        <v>56.73884728383211</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O25" t="n">
-        <v>81.2870303870922</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P25" t="n">
-        <v>98.88580198047258</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q25" t="n">
-        <v>157.895144841498</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R25" t="n">
-        <v>224.4129859729374</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S25" t="n">
-        <v>244.9941118831771</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T25" t="n">
-        <v>218.4058821926404</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,49 +24457,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>422.3471385867855</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H26" t="n">
-        <v>351.3657049311285</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I26" t="n">
-        <v>259.706194187933</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J26" t="n">
-        <v>115.309400717207</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K26" t="n">
-        <v>79.47878231656895</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L26" t="n">
-        <v>40.04864756429342</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M26" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>28.06508836972404</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P26" t="n">
-        <v>75.75370471464296</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.6811959059556</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R26" t="n">
-        <v>220.1217681741228</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S26" t="n">
-        <v>239.0629964691877</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T26" t="n">
-        <v>220.0728025891063</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U26" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,19 +24536,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H27" t="n">
-        <v>138.6110820684246</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I27" t="n">
-        <v>120.0192335563868</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J27" t="n">
-        <v>89.87823627360493</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K27" t="n">
-        <v>25.43178104141768</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>65.20279264048071</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R27" t="n">
-        <v>159.9255994603549</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S27" t="n">
-        <v>209.6778892475315</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T27" t="n">
-        <v>230.4545171253824</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.3090980494251</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H28" t="n">
-        <v>168.2419231811629</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I28" t="n">
-        <v>169.9824652887527</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J28" t="n">
-        <v>137.5627618012226</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K28" t="n">
-        <v>96.14503714836491</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L28" t="n">
-        <v>72.12487452401287</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M28" t="n">
-        <v>69.35944901768788</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N28" t="n">
-        <v>56.73884728383211</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O28" t="n">
-        <v>81.2870303870922</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P28" t="n">
-        <v>98.88580198047258</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q28" t="n">
-        <v>157.895144841498</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R28" t="n">
-        <v>224.4129859729374</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S28" t="n">
-        <v>244.9941118831771</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T28" t="n">
-        <v>218.4058821926404</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,49 +24694,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>422.3471385867855</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H29" t="n">
-        <v>351.3657049311285</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I29" t="n">
-        <v>259.706194187933</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J29" t="n">
-        <v>115.309400717207</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K29" t="n">
-        <v>79.47878231656895</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L29" t="n">
-        <v>40.04864756429342</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M29" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>28.06508836972404</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P29" t="n">
-        <v>75.75370471464296</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.6811959059556</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R29" t="n">
-        <v>220.1217681741228</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S29" t="n">
-        <v>239.0629964691877</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T29" t="n">
-        <v>220.0728025891063</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U29" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,19 +24773,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H30" t="n">
-        <v>138.6110820684246</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I30" t="n">
-        <v>120.0192335563868</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J30" t="n">
-        <v>89.87823627360493</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K30" t="n">
-        <v>25.43178104141768</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>65.20279264048071</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R30" t="n">
-        <v>159.9255994603549</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S30" t="n">
-        <v>209.6778892475315</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T30" t="n">
-        <v>230.4545171253824</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.3090980494251</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H31" t="n">
-        <v>168.2419231811629</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I31" t="n">
-        <v>169.9824652887527</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J31" t="n">
-        <v>137.5627618012226</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K31" t="n">
-        <v>96.14503714836491</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L31" t="n">
-        <v>72.12487452401287</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M31" t="n">
-        <v>69.35944901768788</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N31" t="n">
-        <v>56.73884728383211</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O31" t="n">
-        <v>81.2870303870922</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P31" t="n">
-        <v>98.88580198047258</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q31" t="n">
-        <v>157.895144841498</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R31" t="n">
-        <v>224.4129859729374</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S31" t="n">
-        <v>244.9941118831771</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T31" t="n">
-        <v>218.4058821926404</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,49 +24931,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>422.3471385867855</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H32" t="n">
-        <v>351.3657049311285</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I32" t="n">
-        <v>259.706194187933</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J32" t="n">
-        <v>115.309400717207</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K32" t="n">
-        <v>79.47878231656895</v>
+        <v>78.22308851520964</v>
       </c>
       <c r="L32" t="n">
-        <v>40.04864756429342</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M32" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>28.06508836972404</v>
+        <v>26.40184904719007</v>
       </c>
       <c r="P32" t="n">
-        <v>75.75370471464296</v>
+        <v>74.33416843326194</v>
       </c>
       <c r="Q32" t="n">
-        <v>135.6811959059556</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R32" t="n">
-        <v>220.1217681741228</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S32" t="n">
-        <v>239.0629964691877</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T32" t="n">
-        <v>220.0728025891063</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U32" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,19 +25010,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H33" t="n">
-        <v>138.6110820684246</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I33" t="n">
-        <v>120.0192335563868</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J33" t="n">
-        <v>89.87823627360493</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K33" t="n">
-        <v>25.43178104141768</v>
+        <v>24.57889804244017</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>65.20279264048071</v>
+        <v>64.52858488856607</v>
       </c>
       <c r="R33" t="n">
-        <v>159.9255994603549</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S33" t="n">
-        <v>209.6778892475315</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T33" t="n">
-        <v>230.4545171253824</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.3090980494251</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H34" t="n">
-        <v>168.2419231811629</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I34" t="n">
-        <v>169.9824652887527</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J34" t="n">
-        <v>137.5627618012226</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K34" t="n">
-        <v>96.14503714836491</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L34" t="n">
-        <v>72.12487452401287</v>
+        <v>71.46654840866279</v>
       </c>
       <c r="M34" t="n">
-        <v>69.35944901768788</v>
+        <v>68.6653364331837</v>
       </c>
       <c r="N34" t="n">
-        <v>56.73884728383211</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O34" t="n">
-        <v>81.2870303870922</v>
+        <v>80.66114959698194</v>
       </c>
       <c r="P34" t="n">
-        <v>98.88580198047258</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q34" t="n">
-        <v>157.895144841498</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R34" t="n">
-        <v>224.4129859729374</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S34" t="n">
-        <v>244.9941118831771</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T34" t="n">
-        <v>218.4058821926404</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,49 +25168,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>422.3471385867855</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H35" t="n">
-        <v>351.3657049311285</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I35" t="n">
-        <v>259.706194187933</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J35" t="n">
-        <v>115.309400717207</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K35" t="n">
-        <v>79.47878231656895</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L35" t="n">
-        <v>40.04864756429342</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M35" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>28.06508836972404</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P35" t="n">
-        <v>75.75370471464296</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.6811959059556</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R35" t="n">
-        <v>220.1217681741228</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S35" t="n">
-        <v>239.0629964691877</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T35" t="n">
-        <v>220.0728025891063</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U35" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,19 +25247,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H36" t="n">
-        <v>138.6110820684246</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I36" t="n">
-        <v>120.0192335563868</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J36" t="n">
-        <v>89.87823627360493</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K36" t="n">
-        <v>25.43178104141768</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>65.20279264048071</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R36" t="n">
-        <v>159.9255994603549</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S36" t="n">
-        <v>209.6778892475315</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T36" t="n">
-        <v>230.4545171253824</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.3090980494251</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H37" t="n">
-        <v>168.2419231811629</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I37" t="n">
-        <v>169.9824652887527</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J37" t="n">
-        <v>137.5627618012226</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K37" t="n">
-        <v>96.14503714836491</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L37" t="n">
-        <v>72.12487452401287</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M37" t="n">
-        <v>69.35944901768788</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N37" t="n">
-        <v>56.73884728383211</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O37" t="n">
-        <v>81.2870303870922</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P37" t="n">
-        <v>98.88580198047258</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q37" t="n">
-        <v>157.895144841498</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R37" t="n">
-        <v>224.4129859729374</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S37" t="n">
-        <v>244.9941118831771</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4058821926404</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,49 +25405,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>422.3471385867855</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H38" t="n">
-        <v>351.3657049311285</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I38" t="n">
-        <v>259.706194187933</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J38" t="n">
-        <v>115.309400717207</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K38" t="n">
-        <v>79.47878231656895</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L38" t="n">
-        <v>40.04864756429342</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M38" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>28.06508836972404</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P38" t="n">
-        <v>75.75370471464296</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.6811959059556</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R38" t="n">
-        <v>220.1217681741228</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S38" t="n">
-        <v>239.0629964691877</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T38" t="n">
-        <v>220.0728025891063</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U38" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,19 +25484,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H39" t="n">
-        <v>138.6110820684246</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I39" t="n">
-        <v>120.0192335563868</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J39" t="n">
-        <v>89.87823627360493</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K39" t="n">
-        <v>25.43178104141768</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>65.20279264048071</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R39" t="n">
-        <v>159.9255994603549</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S39" t="n">
-        <v>209.6778892475315</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T39" t="n">
-        <v>230.4545171253824</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.3090980494251</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H40" t="n">
-        <v>168.2419231811629</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I40" t="n">
-        <v>169.9824652887527</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J40" t="n">
-        <v>137.5627618012226</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K40" t="n">
-        <v>96.14503714836491</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L40" t="n">
-        <v>72.12487452401287</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M40" t="n">
-        <v>69.35944901768788</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N40" t="n">
-        <v>56.73884728383211</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O40" t="n">
-        <v>81.2870303870922</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P40" t="n">
-        <v>98.88580198047258</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q40" t="n">
-        <v>157.895144841498</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R40" t="n">
-        <v>224.4129859729374</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S40" t="n">
-        <v>244.9941118831771</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T40" t="n">
-        <v>218.4058821926404</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,49 +25642,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>422.3471385867855</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H41" t="n">
-        <v>351.3657049311285</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I41" t="n">
-        <v>259.706194187933</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J41" t="n">
-        <v>115.309400717207</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K41" t="n">
-        <v>79.47878231656895</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L41" t="n">
-        <v>40.04864756429342</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M41" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>28.06508836972404</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P41" t="n">
-        <v>75.75370471464296</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.6811959059556</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R41" t="n">
-        <v>220.1217681741228</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S41" t="n">
-        <v>239.0629964691877</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T41" t="n">
-        <v>220.0728025891063</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U41" t="n">
-        <v>248.8021588977418</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,19 +25721,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H42" t="n">
-        <v>138.6110820684246</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I42" t="n">
-        <v>120.0192335563868</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J42" t="n">
-        <v>89.87823627360493</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K42" t="n">
-        <v>25.43178104141768</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>65.20279264048071</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R42" t="n">
-        <v>159.9255994603549</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S42" t="n">
-        <v>209.6778892475315</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T42" t="n">
-        <v>230.4545171253824</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.3090980494251</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H43" t="n">
-        <v>168.2419231811629</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I43" t="n">
-        <v>169.9824652887527</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J43" t="n">
-        <v>137.5627618012226</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K43" t="n">
-        <v>96.14503714836491</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L43" t="n">
-        <v>72.12487452401287</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M43" t="n">
-        <v>69.35944901768788</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N43" t="n">
-        <v>56.73884728383211</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O43" t="n">
-        <v>81.2870303870922</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P43" t="n">
-        <v>98.88580198047258</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q43" t="n">
-        <v>157.895144841498</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R43" t="n">
-        <v>224.4129859729374</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S43" t="n">
-        <v>244.9941118831771</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T43" t="n">
-        <v>218.4058821926404</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2236554405096</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,49 +25879,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>422.3471385867855</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H44" t="n">
-        <v>351.3657049311285</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I44" t="n">
-        <v>259.706194187933</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J44" t="n">
-        <v>115.309400717207</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K44" t="n">
-        <v>79.47878231656895</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L44" t="n">
-        <v>40.04864756429342</v>
+        <v>13.76272976322227</v>
       </c>
       <c r="M44" t="n">
-        <v>1.733351762019083</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>28.06508836972404</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>75.75370471464296</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.6811959059556</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R44" t="n">
-        <v>220.1217681741228</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S44" t="n">
-        <v>239.0629964691877</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T44" t="n">
-        <v>220.0728025891063</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U44" t="n">
-        <v>248.8021588977418</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,19 +25958,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>161.1040878550346</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H45" t="n">
-        <v>138.6110820684246</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I45" t="n">
-        <v>120.0192335563868</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J45" t="n">
-        <v>89.87823627360493</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K45" t="n">
-        <v>25.43178104141768</v>
+        <v>11.04044456262879</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>65.20279264048071</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R45" t="n">
-        <v>159.9255994603549</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S45" t="n">
-        <v>209.6778892475315</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T45" t="n">
-        <v>230.4545171253824</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6554177282671</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.3090980494251</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H46" t="n">
-        <v>168.2419231811629</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I46" t="n">
-        <v>169.9824652887527</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J46" t="n">
-        <v>137.5627618012226</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K46" t="n">
-        <v>96.14503714836491</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L46" t="n">
-        <v>72.12487452401287</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M46" t="n">
-        <v>69.35944901768788</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N46" t="n">
-        <v>56.73884728383211</v>
+        <v>45.30505538511905</v>
       </c>
       <c r="O46" t="n">
-        <v>81.2870303870922</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P46" t="n">
-        <v>98.88580198047258</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q46" t="n">
-        <v>157.895144841498</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R46" t="n">
-        <v>224.4129859729374</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S46" t="n">
-        <v>244.9941118831771</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T46" t="n">
-        <v>218.4058821926404</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2236554405096</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>279980.8142762618</v>
+        <v>246494.1752762593</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>320058.2020336832</v>
+        <v>279980.8142762618</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>336081.9869534603</v>
+        <v>279980.8142762618</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>398264.0276127681</v>
+        <v>399887.1695543631</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>398264.0276127681</v>
+        <v>399887.1695543631</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>398264.0276127681</v>
+        <v>399887.1695543631</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>398264.0276127681</v>
+        <v>399887.1695543631</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>398264.0276127681</v>
+        <v>399887.1695543631</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>398264.0276127681</v>
+        <v>399887.1695543631</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>398264.0276127681</v>
+        <v>399887.1695543631</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>398264.0276127681</v>
+        <v>399887.1695543631</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>398264.0276127681</v>
+        <v>399887.1695543631</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>398264.0276127681</v>
+        <v>399887.1695543631</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>398264.0276127681</v>
+        <v>399887.1695543631</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>398264.0276127681</v>
+        <v>422422.0104455853</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>45956.54115320093</v>
+      </c>
+      <c r="C2" t="n">
         <v>52199.81283116746</v>
       </c>
-      <c r="C2" t="n">
-        <v>59671.86817577146</v>
-      </c>
       <c r="D2" t="n">
-        <v>62659.35349979767</v>
+        <v>52199.81283116747</v>
       </c>
       <c r="E2" t="n">
-        <v>74252.61531763479</v>
+        <v>74555.23500166096</v>
       </c>
       <c r="F2" t="n">
-        <v>74252.6153176348</v>
+        <v>74555.23500166096</v>
       </c>
       <c r="G2" t="n">
-        <v>74252.61531763477</v>
+        <v>74555.23500166091</v>
       </c>
       <c r="H2" t="n">
-        <v>74252.61531763479</v>
+        <v>74555.23500166091</v>
       </c>
       <c r="I2" t="n">
-        <v>74252.61531763477</v>
+        <v>74555.23500166091</v>
       </c>
       <c r="J2" t="n">
-        <v>74252.61531763479</v>
+        <v>74555.23500166093</v>
       </c>
       <c r="K2" t="n">
-        <v>74252.61531763476</v>
+        <v>74555.23500166094</v>
       </c>
       <c r="L2" t="n">
-        <v>74252.61531763479</v>
+        <v>74555.23500166096</v>
       </c>
       <c r="M2" t="n">
-        <v>74252.61531763477</v>
+        <v>74555.23500166096</v>
       </c>
       <c r="N2" t="n">
-        <v>74252.6153176348</v>
+        <v>74555.23500166096</v>
       </c>
       <c r="O2" t="n">
-        <v>74252.61531763479</v>
+        <v>74555.23500166096</v>
       </c>
       <c r="P2" t="n">
-        <v>74252.6153176348</v>
+        <v>78756.64601527862</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153449.107713115</v>
+        <v>116197.325017146</v>
       </c>
       <c r="C3" t="n">
-        <v>43856.59924482476</v>
+        <v>35202.45972866162</v>
       </c>
       <c r="D3" t="n">
-        <v>17151.00097898052</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>65706.03945380499</v>
+        <v>122461.8609781335</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>25943.23789574294</v>
       </c>
     </row>
     <row r="4">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>36256.35416310675</v>
+      </c>
+      <c r="C5" t="n">
         <v>37099.10832143807</v>
       </c>
-      <c r="C5" t="n">
-        <v>38149.04436763299</v>
-      </c>
       <c r="D5" t="n">
-        <v>38585.62272966557</v>
+        <v>37099.10832143807</v>
       </c>
       <c r="E5" t="n">
-        <v>6740.928270338123</v>
+        <v>6794.459031509247</v>
       </c>
       <c r="F5" t="n">
-        <v>6740.928270338123</v>
+        <v>6794.459031509247</v>
       </c>
       <c r="G5" t="n">
-        <v>6740.928270338123</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="H5" t="n">
-        <v>6740.928270338123</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="I5" t="n">
-        <v>6740.928270338123</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="J5" t="n">
-        <v>6740.928270338123</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="K5" t="n">
-        <v>6740.928270338123</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="L5" t="n">
-        <v>6740.928270338123</v>
+        <v>6794.459031509246</v>
       </c>
       <c r="M5" t="n">
-        <v>6740.928270338123</v>
+        <v>6794.459031509247</v>
       </c>
       <c r="N5" t="n">
-        <v>6740.928270338123</v>
+        <v>6794.459031509247</v>
       </c>
       <c r="O5" t="n">
-        <v>6740.928270338123</v>
+        <v>6794.459031509247</v>
       </c>
       <c r="P5" t="n">
-        <v>6740.928270338123</v>
+        <v>7644.193075596166</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-138348.4032033856</v>
+        <v>-106497.1380270518</v>
       </c>
       <c r="C6" t="n">
-        <v>-22333.77543668629</v>
+        <v>-20101.75521893222</v>
       </c>
       <c r="D6" t="n">
-        <v>6922.729791151578</v>
+        <v>15100.7045097294</v>
       </c>
       <c r="E6" t="n">
-        <v>1805.647593491676</v>
+        <v>-54701.08500798176</v>
       </c>
       <c r="F6" t="n">
-        <v>67511.68704729668</v>
+        <v>67760.77597015171</v>
       </c>
       <c r="G6" t="n">
-        <v>67511.68704729665</v>
+        <v>67760.77597015166</v>
       </c>
       <c r="H6" t="n">
-        <v>67511.68704729667</v>
+        <v>67760.77597015166</v>
       </c>
       <c r="I6" t="n">
-        <v>67511.68704729665</v>
+        <v>67760.77597015166</v>
       </c>
       <c r="J6" t="n">
-        <v>67511.68704729667</v>
+        <v>67760.77597015168</v>
       </c>
       <c r="K6" t="n">
-        <v>67511.68704729664</v>
+        <v>67760.77597015169</v>
       </c>
       <c r="L6" t="n">
-        <v>67511.68704729667</v>
+        <v>67760.77597015171</v>
       </c>
       <c r="M6" t="n">
-        <v>67511.68704729665</v>
+        <v>67760.77597015171</v>
       </c>
       <c r="N6" t="n">
-        <v>67511.68704729668</v>
+        <v>67760.77597015171</v>
       </c>
       <c r="O6" t="n">
-        <v>67511.68704729667</v>
+        <v>67760.77597015171</v>
       </c>
       <c r="P6" t="n">
-        <v>67511.68704729668</v>
+        <v>45169.21504393951</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>120.5850533535205</v>
+      </c>
+      <c r="C3" t="n">
         <v>159.2435009833979</v>
       </c>
-      <c r="C3" t="n">
-        <v>207.405704937293</v>
-      </c>
       <c r="D3" t="n">
-        <v>227.4322353057602</v>
+        <v>159.2435009833979</v>
       </c>
       <c r="E3" t="n">
-        <v>309.2168931347763</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="F3" t="n">
-        <v>309.2168931347763</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="G3" t="n">
-        <v>309.2168931347763</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="H3" t="n">
-        <v>309.2168931347763</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="I3" t="n">
-        <v>309.2168931347763</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="J3" t="n">
-        <v>309.2168931347763</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="K3" t="n">
-        <v>309.2168931347763</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="L3" t="n">
-        <v>309.2168931347763</v>
+        <v>311.6724326380388</v>
       </c>
       <c r="M3" t="n">
-        <v>309.2168931347763</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="N3" t="n">
-        <v>309.2168931347763</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="O3" t="n">
-        <v>309.2168931347763</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="P3" t="n">
-        <v>309.2168931347763</v>
+        <v>350.6510585135856</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.2435009833979</v>
+        <v>120.5850533535205</v>
       </c>
       <c r="C3" t="n">
-        <v>48.16220395389507</v>
+        <v>38.6584476298774</v>
       </c>
       <c r="D3" t="n">
-        <v>20.02653036846726</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>81.78465782901606</v>
+        <v>152.4289316546409</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>38.97862587554681</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6401748783252171</v>
+        <v>0.4847640335819916</v>
       </c>
       <c r="H2" t="n">
-        <v>6.556190972648132</v>
+        <v>4.964589658921573</v>
       </c>
       <c r="I2" t="n">
-        <v>24.68034199663296</v>
+        <v>18.68886540466975</v>
       </c>
       <c r="J2" t="n">
-        <v>54.33404257925495</v>
+        <v>41.1437413952296</v>
       </c>
       <c r="K2" t="n">
-        <v>81.4326451787614</v>
+        <v>61.66380293675531</v>
       </c>
       <c r="L2" t="n">
-        <v>101.0243971113068</v>
+        <v>76.49940022949021</v>
       </c>
       <c r="M2" t="n">
-        <v>112.4091071037229</v>
+        <v>85.12032261170395</v>
       </c>
       <c r="N2" t="n">
-        <v>114.2280039767644</v>
+        <v>86.49765842211877</v>
       </c>
       <c r="O2" t="n">
-        <v>107.862265030418</v>
+        <v>81.67728606318785</v>
       </c>
       <c r="P2" t="n">
-        <v>92.05794772176419</v>
+        <v>69.70967398413242</v>
       </c>
       <c r="Q2" t="n">
-        <v>69.13168489174234</v>
+        <v>52.34906203147732</v>
       </c>
       <c r="R2" t="n">
-        <v>40.21338520059646</v>
+        <v>30.4510587244948</v>
       </c>
       <c r="S2" t="n">
-        <v>14.5879850398359</v>
+        <v>11.04656041524964</v>
       </c>
       <c r="T2" t="n">
-        <v>2.802365529868639</v>
+        <v>2.122054557005169</v>
       </c>
       <c r="U2" t="n">
-        <v>0.05121399026601737</v>
+        <v>0.03878112268655932</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3425237568322143</v>
+        <v>0.2593716241943649</v>
       </c>
       <c r="H3" t="n">
-        <v>3.308058388353229</v>
+        <v>2.504983844192945</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79303285584598</v>
+        <v>8.930119517218264</v>
       </c>
       <c r="J3" t="n">
-        <v>32.36098353474882</v>
+        <v>24.50493051215269</v>
       </c>
       <c r="K3" t="n">
-        <v>55.31007524250717</v>
+        <v>41.88282933317514</v>
       </c>
       <c r="L3" t="n">
-        <v>74.37122185078408</v>
+        <v>56.31663270062295</v>
       </c>
       <c r="M3" t="n">
-        <v>86.78770803595184</v>
+        <v>65.71885407766867</v>
       </c>
       <c r="N3" t="n">
-        <v>89.08472042277842</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O3" t="n">
-        <v>81.49511507402251</v>
+        <v>61.71110744592855</v>
       </c>
       <c r="P3" t="n">
-        <v>65.40701458316205</v>
+        <v>49.52860427269411</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.72285710019634</v>
+        <v>33.10856030944208</v>
       </c>
       <c r="R3" t="n">
-        <v>21.26651886717907</v>
+        <v>16.10379259690978</v>
       </c>
       <c r="S3" t="n">
-        <v>6.362228553440469</v>
+        <v>4.817714159926028</v>
       </c>
       <c r="T3" t="n">
-        <v>1.380611107582478</v>
+        <v>1.045449660678163</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0225344576863299</v>
+        <v>0.01706392264436611</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.287160411609406</v>
+        <v>0.2174484568670041</v>
       </c>
       <c r="H4" t="n">
-        <v>2.553117114127266</v>
+        <v>1.933314461963002</v>
       </c>
       <c r="I4" t="n">
-        <v>8.635696741853776</v>
+        <v>6.539268139236817</v>
       </c>
       <c r="J4" t="n">
-        <v>20.302241100785</v>
+        <v>15.37360590049719</v>
       </c>
       <c r="K4" t="n">
-        <v>33.36281873062007</v>
+        <v>25.26355707963921</v>
       </c>
       <c r="L4" t="n">
-        <v>42.69292155872933</v>
+        <v>32.32865512366352</v>
       </c>
       <c r="M4" t="n">
-        <v>45.01369979437261</v>
+        <v>34.08603401597956</v>
       </c>
       <c r="N4" t="n">
-        <v>43.9433746238285</v>
+        <v>33.27554431311167</v>
       </c>
       <c r="O4" t="n">
-        <v>40.58881890639133</v>
+        <v>30.73535097607438</v>
       </c>
       <c r="P4" t="n">
-        <v>34.73074650955942</v>
+        <v>26.29940245598748</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.04576864849308</v>
+        <v>18.2083430563816</v>
       </c>
       <c r="R4" t="n">
-        <v>12.91177632563747</v>
+        <v>9.777273342401839</v>
       </c>
       <c r="S4" t="n">
-        <v>5.00442280959301</v>
+        <v>3.78953356194588</v>
       </c>
       <c r="T4" t="n">
-        <v>1.226958122331098</v>
+        <v>0.9290979520681084</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01566329517869489</v>
+        <v>0.01186082492001842</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8337917786423832</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H5" t="n">
-        <v>8.539070053021309</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I5" t="n">
-        <v>32.14475754611051</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J5" t="n">
-        <v>70.76703497254903</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K5" t="n">
-        <v>106.0614409624811</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L5" t="n">
-        <v>131.578596108108</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M5" t="n">
-        <v>146.4065406515395</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N5" t="n">
-        <v>148.7755515426072</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O5" t="n">
-        <v>140.4845345437319</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P5" t="n">
-        <v>119.9003000084981</v>
+        <v>92.05794772176419</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.04013193586772</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R5" t="n">
-        <v>52.37567281514465</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S5" t="n">
-        <v>19.00003015581333</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T5" t="n">
-        <v>3.649923511007034</v>
+        <v>2.802365529868639</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06670334229139063</v>
+        <v>0.05121399026601737</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4461179313745547</v>
+        <v>0.3425237568322143</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3085600214332</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I6" t="n">
-        <v>15.35976211092217</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J6" t="n">
-        <v>42.14836122692669</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K6" t="n">
-        <v>72.03826262902184</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L6" t="n">
-        <v>96.86433417849707</v>
+        <v>74.37122185078408</v>
       </c>
       <c r="M6" t="n">
-        <v>113.0361091908247</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N6" t="n">
-        <v>116.0278386516654</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O6" t="n">
-        <v>106.1428044880503</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P6" t="n">
-        <v>85.18895831660248</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.94656260844317</v>
+        <v>43.72285710019634</v>
       </c>
       <c r="R6" t="n">
-        <v>27.69844489709736</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S6" t="n">
-        <v>8.286444909522974</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T6" t="n">
-        <v>1.798168328654455</v>
+        <v>1.380611107582478</v>
       </c>
       <c r="U6" t="n">
-        <v>0.02934986390622072</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3740102875918398</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H7" t="n">
-        <v>3.325291466043814</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I7" t="n">
-        <v>11.24750937594369</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44252733274307</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K7" t="n">
-        <v>43.45319523112465</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L7" t="n">
-        <v>55.6051294843359</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M7" t="n">
-        <v>58.62781262678266</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N7" t="n">
-        <v>57.23377428212221</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O7" t="n">
-        <v>52.86465410434479</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P7" t="n">
-        <v>45.23484423747121</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q7" t="n">
-        <v>31.31826144553124</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R7" t="n">
-        <v>16.81686256753854</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S7" t="n">
-        <v>6.517979284668696</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T7" t="n">
-        <v>1.598043956074224</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0204005611413731</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9143004434402414</v>
+        <v>0.6401748783252171</v>
       </c>
       <c r="H8" t="n">
-        <v>9.363579416382375</v>
+        <v>6.556190972648132</v>
       </c>
       <c r="I8" t="n">
-        <v>35.24856784572994</v>
+        <v>24.68034199663296</v>
       </c>
       <c r="J8" t="n">
-        <v>77.60010726143626</v>
+        <v>54.33404257925495</v>
       </c>
       <c r="K8" t="n">
-        <v>116.3024450322617</v>
+        <v>81.4326451787614</v>
       </c>
       <c r="L8" t="n">
-        <v>144.283467228196</v>
+        <v>101.0243971113068</v>
       </c>
       <c r="M8" t="n">
-        <v>160.5431577392264</v>
+        <v>112.4091071037229</v>
       </c>
       <c r="N8" t="n">
-        <v>163.140913874151</v>
+        <v>114.2280039767644</v>
       </c>
       <c r="O8" t="n">
-        <v>154.0493388396921</v>
+        <v>107.862265030418</v>
       </c>
       <c r="P8" t="n">
-        <v>131.4775466422611</v>
+        <v>92.05794772176421</v>
       </c>
       <c r="Q8" t="n">
-        <v>98.73416201155744</v>
+        <v>69.13168489174234</v>
       </c>
       <c r="R8" t="n">
-        <v>57.43292523025311</v>
+        <v>40.21338520059646</v>
       </c>
       <c r="S8" t="n">
-        <v>20.83462135489452</v>
+        <v>14.5879850398359</v>
       </c>
       <c r="T8" t="n">
-        <v>4.002350191159659</v>
+        <v>2.80236552986864</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0731440354752193</v>
+        <v>0.05121399026601736</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4891938646199371</v>
+        <v>0.3425237568322144</v>
       </c>
       <c r="H9" t="n">
-        <v>4.724582850408341</v>
+        <v>3.308058388353229</v>
       </c>
       <c r="I9" t="n">
-        <v>16.84285893537941</v>
+        <v>11.79303285584598</v>
       </c>
       <c r="J9" t="n">
-        <v>46.21809227095643</v>
+        <v>32.36098353474882</v>
       </c>
       <c r="K9" t="n">
-        <v>78.99408120049222</v>
+        <v>55.31007524250717</v>
       </c>
       <c r="L9" t="n">
-        <v>106.2172906491666</v>
+        <v>74.3712218507841</v>
       </c>
       <c r="M9" t="n">
         <v>86.78770803595184</v>
       </c>
       <c r="N9" t="n">
-        <v>127.2311709565686</v>
+        <v>89.08472042277842</v>
       </c>
       <c r="O9" t="n">
-        <v>106.1428044880503</v>
+        <v>81.49511507402251</v>
       </c>
       <c r="P9" t="n">
-        <v>93.41457227115274</v>
+        <v>65.40701458316205</v>
       </c>
       <c r="Q9" t="n">
-        <v>62.44516770130988</v>
+        <v>43.72285710019635</v>
       </c>
       <c r="R9" t="n">
-        <v>30.37293134894663</v>
+        <v>21.26651886717907</v>
       </c>
       <c r="S9" t="n">
-        <v>9.086561476602773</v>
+        <v>6.362228553440469</v>
       </c>
       <c r="T9" t="n">
-        <v>1.97179456835843</v>
+        <v>1.380611107582477</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03218380688289061</v>
+        <v>0.0225344576863299</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4101237030103873</v>
+        <v>0.287160411609406</v>
       </c>
       <c r="H10" t="n">
-        <v>3.646372559492355</v>
+        <v>2.553117114127266</v>
       </c>
       <c r="I10" t="n">
-        <v>12.33353826871238</v>
+        <v>8.635696741853776</v>
       </c>
       <c r="J10" t="n">
-        <v>28.99574580283438</v>
+        <v>20.302241100785</v>
       </c>
       <c r="K10" t="n">
-        <v>47.6489174952068</v>
+        <v>33.36281873062007</v>
       </c>
       <c r="L10" t="n">
-        <v>60.97420944574431</v>
+        <v>42.69292155872933</v>
       </c>
       <c r="M10" t="n">
-        <v>64.28875464552824</v>
+        <v>45.01369979437261</v>
       </c>
       <c r="N10" t="n">
-        <v>62.76011175248958</v>
+        <v>43.9433746238285</v>
       </c>
       <c r="O10" t="n">
-        <v>57.96912122186821</v>
+        <v>40.58881890639133</v>
       </c>
       <c r="P10" t="n">
-        <v>49.60259768045627</v>
+        <v>34.73074650955942</v>
       </c>
       <c r="Q10" t="n">
-        <v>34.3422675311698</v>
+        <v>24.04576864849308</v>
       </c>
       <c r="R10" t="n">
-        <v>18.44065304626704</v>
+        <v>12.91177632563747</v>
       </c>
       <c r="S10" t="n">
-        <v>7.147337624281018</v>
+        <v>5.00442280959301</v>
       </c>
       <c r="T10" t="n">
-        <v>1.752346731044381</v>
+        <v>1.226958122331098</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0223703838005666</v>
+        <v>0.01566329517869489</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.243082987476487</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H11" t="n">
-        <v>12.73072364549357</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I11" t="n">
-        <v>47.9239568746873</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J11" t="n">
-        <v>105.5051147083326</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K11" t="n">
-        <v>158.1248175682123</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L11" t="n">
-        <v>196.1678185461958</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M11" t="n">
-        <v>218.2744956247308</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N11" t="n">
         <v>221.8064051628984</v>
       </c>
       <c r="O11" t="n">
-        <v>209.4454987061791</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P11" t="n">
-        <v>178.7568874528532</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q11" t="n">
-        <v>134.2389779638515</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R11" t="n">
-        <v>78.08581171206993</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S11" t="n">
-        <v>28.32675357712047</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T11" t="n">
-        <v>5.441595777678323</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H12" t="n">
-        <v>6.423543383799788</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I12" t="n">
-        <v>22.89955293498108</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J12" t="n">
-        <v>62.83812353788884</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K12" t="n">
-        <v>107.4003618353119</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L12" t="n">
         <v>106.2172906491666</v>
       </c>
       <c r="M12" t="n">
-        <v>86.78770803595184</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N12" t="n">
-        <v>172.9835145848972</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O12" t="n">
-        <v>158.2461207724737</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P12" t="n">
         <v>113.1372509970743</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.90045714900501</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R12" t="n">
-        <v>41.29504093599901</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S12" t="n">
-        <v>12.35409002288469</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T12" t="n">
-        <v>2.680852120668484</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H13" t="n">
-        <v>4.957608548947728</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I13" t="n">
-        <v>16.76868004081705</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J13" t="n">
-        <v>39.42261930998615</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K13" t="n">
-        <v>64.78347367643343</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L13" t="n">
-        <v>82.90054213649397</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M13" t="n">
-        <v>87.40699816922863</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N13" t="n">
-        <v>85.32865511701135</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O13" t="n">
-        <v>78.8148238435984</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P13" t="n">
-        <v>67.43969747975511</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.69175086335122</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R13" t="n">
-        <v>25.07191399089513</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S13" t="n">
-        <v>9.717521051465015</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T13" t="n">
-        <v>2.382490815956472</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.243082987476487</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H14" t="n">
-        <v>12.73072364549357</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I14" t="n">
-        <v>47.9239568746873</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J14" t="n">
-        <v>105.5051147083326</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K14" t="n">
-        <v>158.1248175682123</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L14" t="n">
-        <v>196.1678185461958</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M14" t="n">
-        <v>218.2744956247308</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N14" t="n">
         <v>221.8064051628984</v>
       </c>
       <c r="O14" t="n">
-        <v>209.4454987061791</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P14" t="n">
-        <v>178.7568874528532</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q14" t="n">
-        <v>134.2389779638515</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R14" t="n">
-        <v>78.08581171206993</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S14" t="n">
-        <v>28.32675357712047</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T14" t="n">
-        <v>5.441595777678323</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U14" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H15" t="n">
-        <v>6.423543383799788</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I15" t="n">
-        <v>22.89955293498108</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J15" t="n">
-        <v>62.83812353788884</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K15" t="n">
-        <v>107.4003618353119</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L15" t="n">
-        <v>144.4130405154444</v>
+        <v>106.2172906491666</v>
       </c>
       <c r="M15" t="n">
-        <v>86.78770803595184</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N15" t="n">
-        <v>172.9835145848972</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O15" t="n">
         <v>106.1428044880503</v>
@@ -32096,19 +32098,19 @@
         <v>113.1372509970743</v>
       </c>
       <c r="Q15" t="n">
-        <v>84.90045714900501</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R15" t="n">
-        <v>41.295040935999</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S15" t="n">
-        <v>12.35409002288469</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T15" t="n">
-        <v>2.680852120668484</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5576042335217277</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H16" t="n">
-        <v>4.957608548947729</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I16" t="n">
-        <v>16.76868004081705</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J16" t="n">
-        <v>39.42261930998615</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K16" t="n">
-        <v>64.78347367643343</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L16" t="n">
-        <v>82.90054213649397</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M16" t="n">
-        <v>87.40699816922863</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N16" t="n">
-        <v>85.32865511701135</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O16" t="n">
-        <v>78.81482384359842</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P16" t="n">
-        <v>67.43969747975511</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.69175086335122</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R16" t="n">
-        <v>25.07191399089513</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S16" t="n">
-        <v>9.717521051465013</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T16" t="n">
-        <v>2.382490815956472</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.243082987476487</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H17" t="n">
-        <v>12.73072364549357</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I17" t="n">
-        <v>47.9239568746873</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J17" t="n">
-        <v>105.5051147083326</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K17" t="n">
-        <v>158.1248175682123</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L17" t="n">
-        <v>196.1678185461958</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M17" t="n">
-        <v>218.2744956247308</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N17" t="n">
         <v>221.8064051628984</v>
       </c>
       <c r="O17" t="n">
-        <v>209.4454987061791</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P17" t="n">
-        <v>178.7568874528532</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.2389779638515</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R17" t="n">
-        <v>78.08581171206993</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S17" t="n">
-        <v>28.32675357712047</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T17" t="n">
-        <v>5.441595777678323</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H18" t="n">
-        <v>6.423543383799788</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I18" t="n">
-        <v>22.89955293498108</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J18" t="n">
-        <v>62.83812353788884</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K18" t="n">
-        <v>107.4003618353119</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L18" t="n">
         <v>106.2172906491666</v>
       </c>
       <c r="M18" t="n">
-        <v>168.5232067584531</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N18" t="n">
-        <v>172.9835145848972</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O18" t="n">
         <v>106.1428044880503</v>
@@ -32333,19 +32335,19 @@
         <v>113.1372509970743</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.90045714900501</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R18" t="n">
-        <v>41.29504093599901</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S18" t="n">
-        <v>12.35409002288469</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T18" t="n">
-        <v>2.680852120668484</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H19" t="n">
-        <v>4.957608548947728</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I19" t="n">
-        <v>16.76868004081705</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J19" t="n">
-        <v>39.42261930998615</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K19" t="n">
-        <v>64.78347367643343</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L19" t="n">
-        <v>82.90054213649397</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M19" t="n">
-        <v>87.40699816922863</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N19" t="n">
-        <v>85.32865511701135</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O19" t="n">
-        <v>78.8148238435984</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P19" t="n">
-        <v>67.43969747975511</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.69175086335122</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R19" t="n">
-        <v>25.07191399089513</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S19" t="n">
-        <v>9.717521051465015</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T19" t="n">
-        <v>2.382490815956472</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.243082987476487</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H20" t="n">
-        <v>12.73072364549357</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I20" t="n">
-        <v>47.9239568746873</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J20" t="n">
-        <v>105.5051147083326</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K20" t="n">
-        <v>158.1248175682123</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L20" t="n">
-        <v>196.1678185461958</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M20" t="n">
-        <v>218.2744956247308</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N20" t="n">
         <v>221.8064051628984</v>
       </c>
       <c r="O20" t="n">
-        <v>209.4454987061791</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P20" t="n">
-        <v>178.7568874528532</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q20" t="n">
-        <v>134.2389779638515</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R20" t="n">
-        <v>78.08581171206993</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S20" t="n">
-        <v>28.32675357712047</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T20" t="n">
-        <v>5.441595777678323</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H21" t="n">
-        <v>6.423543383799788</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I21" t="n">
-        <v>22.89955293498108</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J21" t="n">
-        <v>62.83812353788884</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K21" t="n">
-        <v>107.4003618353119</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L21" t="n">
         <v>106.2172906491666</v>
       </c>
       <c r="M21" t="n">
-        <v>86.78770803595184</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N21" t="n">
-        <v>172.9835145848972</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O21" t="n">
         <v>106.1428044880503</v>
@@ -32570,19 +32572,19 @@
         <v>113.1372509970743</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.90045714900501</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R21" t="n">
-        <v>41.29504093599901</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S21" t="n">
-        <v>12.35409002288469</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T21" t="n">
-        <v>2.680852120668484</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H22" t="n">
-        <v>4.957608548947728</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I22" t="n">
-        <v>16.76868004081705</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J22" t="n">
-        <v>39.42261930998615</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K22" t="n">
-        <v>64.78347367643343</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L22" t="n">
-        <v>82.90054213649397</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M22" t="n">
-        <v>87.40699816922863</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N22" t="n">
-        <v>85.32865511701135</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O22" t="n">
-        <v>78.8148238435984</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P22" t="n">
-        <v>67.43969747975511</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.69175086335122</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R22" t="n">
-        <v>25.07191399089513</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S22" t="n">
-        <v>9.717521051465015</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T22" t="n">
-        <v>2.382490815956472</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.243082987476487</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H23" t="n">
-        <v>12.73072364549357</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I23" t="n">
-        <v>47.9239568746873</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J23" t="n">
-        <v>105.5051147083326</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K23" t="n">
-        <v>158.1248175682123</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L23" t="n">
-        <v>196.1678185461958</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M23" t="n">
-        <v>218.2744956247308</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N23" t="n">
-        <v>221.8064051628984</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O23" t="n">
-        <v>209.4454987061791</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P23" t="n">
-        <v>178.7568874528532</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q23" t="n">
-        <v>134.2389779638515</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R23" t="n">
-        <v>78.08581171206993</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S23" t="n">
-        <v>28.32675357712047</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T23" t="n">
-        <v>5.441595777678323</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H24" t="n">
-        <v>6.423543383799788</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I24" t="n">
-        <v>22.89955293498108</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J24" t="n">
-        <v>62.83812353788884</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K24" t="n">
-        <v>107.4003618353119</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L24" t="n">
-        <v>144.4130405154444</v>
+        <v>106.2172906491666</v>
       </c>
       <c r="M24" t="n">
-        <v>86.78770803595184</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N24" t="n">
-        <v>67.45823659255106</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O24" t="n">
         <v>106.1428044880503</v>
@@ -32807,19 +32809,19 @@
         <v>113.1372509970743</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.90045714900501</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R24" t="n">
-        <v>41.29504093599901</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S24" t="n">
-        <v>12.35409002288469</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T24" t="n">
-        <v>2.680852120668484</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H25" t="n">
-        <v>4.957608548947728</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I25" t="n">
-        <v>16.76868004081705</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J25" t="n">
-        <v>39.42261930998615</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K25" t="n">
-        <v>64.78347367643343</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L25" t="n">
-        <v>82.90054213649397</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M25" t="n">
-        <v>87.40699816922863</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N25" t="n">
-        <v>85.32865511701135</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O25" t="n">
-        <v>78.8148238435984</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P25" t="n">
-        <v>67.43969747975511</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.69175086335122</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R25" t="n">
-        <v>25.07191399089513</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S25" t="n">
-        <v>9.717521051465015</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T25" t="n">
-        <v>2.382490815956472</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.243082987476487</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H26" t="n">
-        <v>12.73072364549357</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I26" t="n">
-        <v>47.9239568746873</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J26" t="n">
-        <v>105.5051147083326</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K26" t="n">
-        <v>158.1248175682123</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L26" t="n">
-        <v>196.1678185461958</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M26" t="n">
-        <v>218.2744956247308</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N26" t="n">
         <v>221.8064051628984</v>
       </c>
       <c r="O26" t="n">
-        <v>209.4454987061791</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P26" t="n">
-        <v>178.7568874528532</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q26" t="n">
-        <v>134.2389779638515</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R26" t="n">
-        <v>78.08581171206993</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S26" t="n">
-        <v>28.32675357712047</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T26" t="n">
-        <v>5.441595777678323</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H27" t="n">
-        <v>6.423543383799788</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I27" t="n">
-        <v>22.89955293498108</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J27" t="n">
-        <v>62.83812353788884</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K27" t="n">
-        <v>107.4003618353119</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L27" t="n">
-        <v>144.4130405154444</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M27" t="n">
-        <v>86.78770803595184</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N27" t="n">
-        <v>172.9835145848972</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O27" t="n">
-        <v>106.1428044880503</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P27" t="n">
         <v>113.1372509970743</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.90045714900501</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R27" t="n">
-        <v>41.29504093599901</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S27" t="n">
-        <v>12.35409002288469</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T27" t="n">
-        <v>2.680852120668484</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H28" t="n">
-        <v>4.957608548947728</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I28" t="n">
-        <v>16.76868004081705</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J28" t="n">
-        <v>39.42261930998615</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K28" t="n">
-        <v>64.78347367643343</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L28" t="n">
-        <v>82.90054213649397</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M28" t="n">
-        <v>87.40699816922863</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N28" t="n">
-        <v>85.32865511701135</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O28" t="n">
-        <v>78.8148238435984</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P28" t="n">
-        <v>67.43969747975511</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.69175086335122</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R28" t="n">
-        <v>25.07191399089513</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S28" t="n">
-        <v>9.717521051465015</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T28" t="n">
-        <v>2.382490815956472</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.243082987476487</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H29" t="n">
-        <v>12.73072364549357</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I29" t="n">
-        <v>47.9239568746873</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J29" t="n">
-        <v>105.5051147083326</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K29" t="n">
-        <v>158.1248175682123</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L29" t="n">
-        <v>196.1678185461958</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M29" t="n">
-        <v>218.2744956247308</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N29" t="n">
-        <v>221.8064051628984</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O29" t="n">
-        <v>209.4454987061791</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P29" t="n">
-        <v>178.7568874528532</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q29" t="n">
-        <v>134.2389779638515</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R29" t="n">
-        <v>78.08581171206993</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S29" t="n">
-        <v>28.32675357712047</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T29" t="n">
-        <v>5.441595777678323</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H30" t="n">
-        <v>6.423543383799788</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I30" t="n">
-        <v>22.89955293498108</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J30" t="n">
-        <v>62.83812353788884</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K30" t="n">
-        <v>107.4003618353119</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L30" t="n">
-        <v>144.4130405154444</v>
+        <v>106.2172906491666</v>
       </c>
       <c r="M30" t="n">
         <v>86.78770803595184</v>
       </c>
       <c r="N30" t="n">
-        <v>67.45823659255106</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O30" t="n">
-        <v>158.2461207724737</v>
+        <v>106.1428044880503</v>
       </c>
       <c r="P30" t="n">
         <v>113.1372509970743</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.90045714900501</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R30" t="n">
-        <v>41.29504093599901</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S30" t="n">
-        <v>12.35409002288469</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T30" t="n">
-        <v>2.680852120668484</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H31" t="n">
-        <v>4.957608548947728</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I31" t="n">
-        <v>16.76868004081705</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J31" t="n">
-        <v>39.42261930998615</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K31" t="n">
-        <v>64.78347367643343</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L31" t="n">
-        <v>82.90054213649397</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M31" t="n">
-        <v>87.40699816922863</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N31" t="n">
-        <v>85.32865511701135</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O31" t="n">
-        <v>78.8148238435984</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P31" t="n">
-        <v>67.43969747975511</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.69175086335122</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R31" t="n">
-        <v>25.07191399089513</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S31" t="n">
-        <v>9.717521051465015</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T31" t="n">
-        <v>2.382490815956472</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.243082987476487</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H32" t="n">
-        <v>12.73072364549357</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I32" t="n">
-        <v>47.9239568746873</v>
+        <v>48.30452847950952</v>
       </c>
       <c r="J32" t="n">
-        <v>105.5051147083326</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K32" t="n">
-        <v>158.1248175682123</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L32" t="n">
-        <v>196.1678185461958</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M32" t="n">
-        <v>218.2744956247308</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N32" t="n">
         <v>221.8064051628984</v>
       </c>
       <c r="O32" t="n">
-        <v>209.4454987061791</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P32" t="n">
-        <v>178.7568874528532</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q32" t="n">
-        <v>134.2389779638515</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R32" t="n">
-        <v>78.08581171206993</v>
+        <v>78.70590330331339</v>
       </c>
       <c r="S32" t="n">
-        <v>28.32675357712047</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T32" t="n">
-        <v>5.441595777678323</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.6703897607686118</v>
       </c>
       <c r="H33" t="n">
-        <v>6.423543383799788</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I33" t="n">
-        <v>22.89955293498108</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J33" t="n">
-        <v>62.83812353788884</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K33" t="n">
-        <v>107.4003618353119</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L33" t="n">
         <v>106.2172906491666</v>
@@ -33512,25 +33514,25 @@
         <v>67.45823659255106</v>
       </c>
       <c r="O33" t="n">
-        <v>106.1428044880503</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P33" t="n">
         <v>113.1372509970743</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.90045714900501</v>
+        <v>85.57466490091964</v>
       </c>
       <c r="R33" t="n">
-        <v>41.29504093599901</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S33" t="n">
-        <v>12.35409002288469</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T33" t="n">
-        <v>2.680852120668484</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H34" t="n">
-        <v>4.957608548947728</v>
+        <v>4.996977690491838</v>
       </c>
       <c r="I34" t="n">
-        <v>16.76868004081705</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J34" t="n">
-        <v>39.42261930998615</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K34" t="n">
-        <v>64.78347367643343</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L34" t="n">
-        <v>82.90054213649397</v>
+        <v>83.55886825184405</v>
       </c>
       <c r="M34" t="n">
-        <v>87.40699816922863</v>
+        <v>88.10111075373281</v>
       </c>
       <c r="N34" t="n">
-        <v>85.32865511701135</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O34" t="n">
-        <v>78.8148238435984</v>
+        <v>79.44070463370866</v>
       </c>
       <c r="P34" t="n">
-        <v>67.43969747975511</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.69175086335122</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R34" t="n">
-        <v>25.07191399089513</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S34" t="n">
-        <v>9.717521051465015</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T34" t="n">
-        <v>2.382490815956472</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03065630484964319</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.243082987476487</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H35" t="n">
-        <v>12.73072364549357</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I35" t="n">
-        <v>47.9239568746873</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J35" t="n">
-        <v>105.5051147083326</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K35" t="n">
-        <v>158.1248175682123</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L35" t="n">
-        <v>196.1678185461958</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M35" t="n">
-        <v>218.2744956247308</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N35" t="n">
-        <v>221.8064051628984</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O35" t="n">
-        <v>209.4454987061791</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P35" t="n">
-        <v>178.7568874528532</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q35" t="n">
-        <v>134.2389779638515</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R35" t="n">
-        <v>78.08581171206993</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S35" t="n">
-        <v>28.32675357712047</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T35" t="n">
-        <v>5.441595777678323</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H36" t="n">
-        <v>6.423543383799788</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I36" t="n">
-        <v>22.89955293498108</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J36" t="n">
-        <v>62.83812353788884</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K36" t="n">
-        <v>107.4003618353119</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L36" t="n">
-        <v>106.2172906491666</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M36" t="n">
         <v>86.78770803595184</v>
@@ -33749,25 +33751,25 @@
         <v>67.45823659255106</v>
       </c>
       <c r="O36" t="n">
-        <v>106.1428044880503</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P36" t="n">
-        <v>113.1372509970743</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q36" t="n">
-        <v>84.90045714900501</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R36" t="n">
-        <v>41.29504093599901</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S36" t="n">
-        <v>12.35409002288469</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T36" t="n">
-        <v>2.680852120668484</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H37" t="n">
-        <v>4.957608548947728</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I37" t="n">
-        <v>16.76868004081705</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J37" t="n">
-        <v>39.42261930998615</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K37" t="n">
-        <v>64.78347367643343</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L37" t="n">
-        <v>82.90054213649397</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M37" t="n">
-        <v>87.40699816922863</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N37" t="n">
-        <v>85.32865511701135</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O37" t="n">
-        <v>78.8148238435984</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P37" t="n">
-        <v>67.43969747975511</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.69175086335122</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R37" t="n">
-        <v>25.07191399089513</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S37" t="n">
-        <v>9.717521051465015</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T37" t="n">
-        <v>2.382490815956472</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.243082987476487</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H38" t="n">
-        <v>12.73072364549357</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I38" t="n">
-        <v>47.9239568746873</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J38" t="n">
-        <v>105.5051147083326</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K38" t="n">
-        <v>158.1248175682123</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L38" t="n">
-        <v>196.1678185461958</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M38" t="n">
-        <v>218.2744956247308</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N38" t="n">
-        <v>221.8064051628984</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O38" t="n">
-        <v>209.4454987061791</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P38" t="n">
-        <v>178.7568874528532</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q38" t="n">
-        <v>134.2389779638515</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R38" t="n">
-        <v>78.08581171206993</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S38" t="n">
-        <v>28.32675357712047</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T38" t="n">
-        <v>5.441595777678323</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H39" t="n">
-        <v>6.423543383799788</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I39" t="n">
-        <v>22.89955293498108</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J39" t="n">
-        <v>62.83812353788884</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K39" t="n">
-        <v>107.4003618353119</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L39" t="n">
-        <v>144.4130405154444</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M39" t="n">
         <v>86.78770803595184</v>
       </c>
       <c r="N39" t="n">
-        <v>172.9835145848972</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O39" t="n">
-        <v>158.2461207724737</v>
+        <v>106.1428044880503</v>
       </c>
       <c r="P39" t="n">
-        <v>127.0064631443575</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.90045714900501</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R39" t="n">
-        <v>41.29504093599901</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S39" t="n">
-        <v>12.35409002288469</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T39" t="n">
-        <v>2.680852120668484</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H40" t="n">
-        <v>4.957608548947728</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I40" t="n">
-        <v>16.76868004081705</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J40" t="n">
-        <v>39.42261930998615</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K40" t="n">
-        <v>64.78347367643343</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L40" t="n">
-        <v>82.90054213649397</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M40" t="n">
-        <v>87.40699816922863</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N40" t="n">
-        <v>85.32865511701135</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O40" t="n">
-        <v>78.8148238435984</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P40" t="n">
-        <v>67.43969747975511</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.69175086335122</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R40" t="n">
-        <v>25.07191399089513</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S40" t="n">
-        <v>9.717521051465015</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T40" t="n">
-        <v>2.382490815956472</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.243082987476487</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H41" t="n">
-        <v>12.73072364549357</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I41" t="n">
-        <v>47.9239568746873</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J41" t="n">
-        <v>105.5051147083326</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K41" t="n">
-        <v>158.1248175682123</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L41" t="n">
-        <v>196.1678185461958</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M41" t="n">
-        <v>218.2744956247308</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N41" t="n">
-        <v>221.8064051628984</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O41" t="n">
-        <v>209.4454987061791</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P41" t="n">
-        <v>178.7568874528532</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q41" t="n">
-        <v>134.2389779638515</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R41" t="n">
-        <v>78.08581171206993</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S41" t="n">
-        <v>28.32675357712047</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T41" t="n">
-        <v>5.441595777678323</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H42" t="n">
-        <v>6.423543383799788</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I42" t="n">
-        <v>22.89955293498108</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J42" t="n">
-        <v>62.83812353788884</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K42" t="n">
-        <v>107.4003618353119</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L42" t="n">
-        <v>144.4130405154444</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M42" t="n">
-        <v>168.5232067584531</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N42" t="n">
-        <v>172.9835145848972</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O42" t="n">
         <v>106.1428044880503</v>
@@ -34229,19 +34231,19 @@
         <v>113.1372509970743</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.90045714900501</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R42" t="n">
-        <v>41.29504093599901</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S42" t="n">
-        <v>12.35409002288469</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T42" t="n">
-        <v>2.680852120668484</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H43" t="n">
-        <v>4.957608548947728</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I43" t="n">
-        <v>16.76868004081705</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J43" t="n">
-        <v>39.42261930998615</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K43" t="n">
-        <v>64.78347367643343</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L43" t="n">
-        <v>82.90054213649397</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M43" t="n">
-        <v>87.40699816922863</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N43" t="n">
-        <v>85.32865511701135</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O43" t="n">
-        <v>78.8148238435984</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P43" t="n">
-        <v>67.43969747975511</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.69175086335122</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R43" t="n">
-        <v>25.07191399089513</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S43" t="n">
-        <v>9.717521051465015</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T43" t="n">
-        <v>2.382490815956472</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.243082987476487</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H44" t="n">
-        <v>12.73072364549357</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I44" t="n">
-        <v>47.9239568746873</v>
+        <v>54.34562787274376</v>
       </c>
       <c r="J44" t="n">
-        <v>105.5051147083326</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K44" t="n">
-        <v>158.1248175682123</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L44" t="n">
-        <v>196.1678185461958</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M44" t="n">
-        <v>218.2744956247308</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N44" t="n">
-        <v>221.8064051628984</v>
+        <v>251.5278190883432</v>
       </c>
       <c r="O44" t="n">
-        <v>209.4454987061791</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P44" t="n">
-        <v>178.7568874528532</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q44" t="n">
-        <v>134.2389779638515</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R44" t="n">
-        <v>78.08581171206993</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S44" t="n">
-        <v>28.32675357712047</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T44" t="n">
-        <v>5.441595777678323</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09944663899811891</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6651080342898962</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H45" t="n">
-        <v>6.423543383799788</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I45" t="n">
-        <v>22.89955293498108</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J45" t="n">
-        <v>62.83812353788884</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K45" t="n">
-        <v>107.4003618353119</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L45" t="n">
         <v>106.2172906491666</v>
       </c>
       <c r="M45" t="n">
-        <v>168.5232067584531</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N45" t="n">
-        <v>172.9835145848972</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O45" t="n">
-        <v>158.2461207724737</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P45" t="n">
         <v>113.1372509970743</v>
       </c>
       <c r="Q45" t="n">
-        <v>84.90045714900501</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R45" t="n">
-        <v>41.29504093599901</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S45" t="n">
-        <v>12.35409002288469</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T45" t="n">
-        <v>2.680852120668484</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04375710751907214</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5576042335217276</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H46" t="n">
-        <v>4.957608548947728</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I46" t="n">
-        <v>16.76868004081705</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J46" t="n">
-        <v>39.42261930998615</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K46" t="n">
-        <v>64.78347367643343</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L46" t="n">
-        <v>82.90054213649397</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M46" t="n">
-        <v>87.40699816922863</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N46" t="n">
-        <v>85.32865511701135</v>
+        <v>96.76244701572442</v>
       </c>
       <c r="O46" t="n">
-        <v>78.8148238435984</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P46" t="n">
-        <v>67.43969747975511</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.69175086335122</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R46" t="n">
-        <v>25.07191399089513</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S46" t="n">
-        <v>9.717521051465015</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T46" t="n">
-        <v>2.382490815956472</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03041477637391245</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_0_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_0_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>200310.0660376691</v>
+        <v>53671.42047919652</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222774.538307847</v>
+        <v>141546.612267904</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26191837.23347164</v>
+        <v>25394095.55885192</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4257410.076165312</v>
+        <v>4653533.558528898</v>
       </c>
     </row>
     <row r="11">
@@ -8066,7 +8066,7 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M3" t="n">
-        <v>121.083316575</v>
+        <v>94.83491542012716</v>
       </c>
       <c r="N3" t="n">
         <v>124.6290173293239</v>
@@ -8306,10 +8306,10 @@
         <v>121.083316575</v>
       </c>
       <c r="N6" t="n">
-        <v>103.0025334990966</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O6" t="n">
-        <v>102.4042030119497</v>
+        <v>92.15534270158891</v>
       </c>
       <c r="P6" t="n">
         <v>82.80031984638366</v>
@@ -8537,16 +8537,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>96.41848977889939</v>
+        <v>73.99276488738511</v>
       </c>
       <c r="M9" t="n">
         <v>121.083316575</v>
       </c>
       <c r="N9" t="n">
-        <v>103.0025334990966</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O9" t="n">
-        <v>102.4042030119497</v>
+        <v>67.58149565199844</v>
       </c>
       <c r="P9" t="n">
         <v>82.80031984638366</v>
@@ -8698,7 +8698,7 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>116.8735187081365</v>
+        <v>89.35872216232906</v>
       </c>
       <c r="N11" t="n">
         <v>113.7102003471159</v>
@@ -8777,13 +8777,13 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M12" t="n">
-        <v>38.00954882322068</v>
+        <v>121.083316575</v>
       </c>
       <c r="N12" t="n">
-        <v>17.73005030863851</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O12" t="n">
-        <v>49.04422963853119</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>82.80031984638366</v>
@@ -9014,10 +9014,10 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M15" t="n">
-        <v>38.00954882322068</v>
+        <v>121.083316575</v>
       </c>
       <c r="N15" t="n">
-        <v>17.73005030863851</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O15" t="n">
         <v>102.4042030119497</v>
@@ -9248,16 +9248,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L18" t="n">
-        <v>96.41848977889939</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M18" t="n">
-        <v>121.083316575</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N18" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>102.4042030119497</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P18" t="n">
         <v>82.80031984638366</v>
@@ -9485,16 +9485,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L21" t="n">
-        <v>96.41848977889939</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M21" t="n">
-        <v>38.00954882322068</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N21" t="n">
-        <v>17.73005030863851</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>102.4042030119497</v>
+        <v>29.09636626239168</v>
       </c>
       <c r="P21" t="n">
         <v>82.80031984638366</v>
@@ -9649,7 +9649,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>111.9488011414238</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>99.00804712831379</v>
@@ -9722,16 +9722,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L24" t="n">
-        <v>96.41848977889939</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M24" t="n">
-        <v>38.00954882322068</v>
+        <v>121.083316575</v>
       </c>
       <c r="N24" t="n">
-        <v>17.73005030863851</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O24" t="n">
-        <v>102.4042030119497</v>
+        <v>29.09636626239168</v>
       </c>
       <c r="P24" t="n">
         <v>82.80031984638366</v>
@@ -9959,16 +9959,16 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L27" t="n">
-        <v>57.07593346819701</v>
+        <v>38.8718120156598</v>
       </c>
       <c r="M27" t="n">
-        <v>38.00954882322068</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N27" t="n">
-        <v>17.73005030863851</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>49.04422963853119</v>
+        <v>29.09636626239171</v>
       </c>
       <c r="P27" t="n">
         <v>82.80031984638366</v>
@@ -10123,7 +10123,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>111.9488011414238</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>99.00804712831379</v>
@@ -10202,7 +10202,7 @@
         <v>121.083316575</v>
       </c>
       <c r="N30" t="n">
-        <v>17.73005030863851</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>102.4042030119497</v>
@@ -10442,7 +10442,7 @@
         <v>124.6290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>49.04422963853119</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P33" t="n">
         <v>82.80031984638366</v>
@@ -10597,7 +10597,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>111.9488011414238</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>99.00804712831379</v>
@@ -10670,7 +10670,7 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L36" t="n">
-        <v>57.07593346819698</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M36" t="n">
         <v>121.083316575</v>
@@ -10679,10 +10679,10 @@
         <v>124.6290173293239</v>
       </c>
       <c r="O36" t="n">
-        <v>49.04422963853119</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P36" t="n">
-        <v>67.92252959633595</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10834,7 +10834,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>111.9488011414238</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>99.00804712831379</v>
@@ -10907,19 +10907,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L39" t="n">
-        <v>57.07593346819698</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M39" t="n">
         <v>121.083316575</v>
       </c>
       <c r="N39" t="n">
-        <v>17.73005030863851</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>102.4042030119497</v>
       </c>
       <c r="P39" t="n">
-        <v>67.92252959633595</v>
+        <v>82.80031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11071,7 +11071,7 @@
         <v>116.8735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>111.9488011414238</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>99.00804712831379</v>
@@ -11144,13 +11144,13 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L42" t="n">
-        <v>57.07593346819698</v>
+        <v>96.41848977889939</v>
       </c>
       <c r="M42" t="n">
-        <v>38.00954882322068</v>
+        <v>121.083316575</v>
       </c>
       <c r="N42" t="n">
-        <v>17.73005030863851</v>
+        <v>124.6290173293239</v>
       </c>
       <c r="O42" t="n">
         <v>102.4042030119497</v>
@@ -11305,10 +11305,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>89.35872216232903</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>83.98878642167108</v>
+        <v>113.7102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>99.00804712831379</v>
@@ -11384,13 +11384,13 @@
         <v>96.41848977889939</v>
       </c>
       <c r="M45" t="n">
-        <v>121.083316575</v>
+        <v>16.76619772104769</v>
       </c>
       <c r="N45" t="n">
         <v>124.6290173293239</v>
       </c>
       <c r="O45" t="n">
-        <v>29.09636626239171</v>
+        <v>102.4042030119497</v>
       </c>
       <c r="P45" t="n">
         <v>82.80031984638366</v>
@@ -22561,49 +22561,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>423.10545754068</v>
+        <v>422.7564297956197</v>
       </c>
       <c r="H2" t="n">
-        <v>359.1318389177005</v>
+        <v>355.5573585236008</v>
       </c>
       <c r="I2" t="n">
-        <v>288.9412856579506</v>
+        <v>275.4853935165098</v>
       </c>
       <c r="J2" t="n">
-        <v>179.6707740303099</v>
+        <v>150.0474804529905</v>
       </c>
       <c r="K2" t="n">
-        <v>175.9397969480259</v>
+        <v>131.5421589223001</v>
       </c>
       <c r="L2" t="n">
-        <v>159.717065880999</v>
+        <v>104.6378700023812</v>
       </c>
       <c r="M2" t="n">
-        <v>134.8875247750459</v>
+        <v>73.60130673521041</v>
       </c>
       <c r="N2" t="n">
-        <v>135.3087467407796</v>
+        <v>73.03085362029123</v>
       </c>
       <c r="O2" t="n">
-        <v>155.8333010127153</v>
+        <v>97.02605253217115</v>
       </c>
       <c r="P2" t="n">
-        <v>184.8009181833638</v>
+        <v>134.6102921589981</v>
       </c>
       <c r="Q2" t="n">
-        <v>217.5711118383298</v>
+        <v>179.8800419339395</v>
       </c>
       <c r="R2" t="n">
-        <v>267.7565211616979</v>
+        <v>245.8319070710481</v>
       </c>
       <c r="S2" t="n">
-        <v>256.3431896310585</v>
+        <v>248.3897198904948</v>
       </c>
       <c r="T2" t="n">
-        <v>223.3923438097795</v>
+        <v>221.8644748557776</v>
       </c>
       <c r="U2" t="n">
-        <v>248.8628244140534</v>
+        <v>248.8349021944486</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22640,49 +22640,49 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.5098242651302</v>
+        <v>161.32307795795</v>
       </c>
       <c r="H3" t="n">
-        <v>142.5296416080314</v>
+        <v>140.7260654307912</v>
       </c>
       <c r="I3" t="n">
-        <v>133.9886669741497</v>
+        <v>127.5590243804457</v>
       </c>
       <c r="J3" t="n">
-        <v>128.2114292993411</v>
+        <v>110.5679985845671</v>
       </c>
       <c r="K3" t="n">
-        <v>90.94931354355442</v>
+        <v>60.79388024770772</v>
       </c>
       <c r="L3" t="n">
-        <v>49.90065794854366</v>
+        <v>9.35295647066954</v>
       </c>
       <c r="M3" t="n">
-        <v>21.06885395828317</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>44.43169704212175</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>63.60864672438022</v>
+        <v>27.94829268047185</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.9946894800436</v>
+        <v>93.15668718104254</v>
       </c>
       <c r="R3" t="n">
-        <v>185.1168477994441</v>
+        <v>173.5221954992565</v>
       </c>
       <c r="S3" t="n">
-        <v>217.2142651104902</v>
+        <v>213.7455343608933</v>
       </c>
       <c r="T3" t="n">
-        <v>232.0899195853727</v>
+        <v>231.3372009173964</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6821109131418</v>
+        <v>249.6698249718799</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22719,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.6492538260798</v>
+        <v>169.492691995355</v>
       </c>
       <c r="H4" t="n">
-        <v>171.2662172681476</v>
+        <v>169.8742402640668</v>
       </c>
       <c r="I4" t="n">
-        <v>180.2118771903329</v>
+        <v>175.503635953626</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6117752107116</v>
+        <v>150.5428537784657</v>
       </c>
       <c r="K4" t="n">
-        <v>135.6649537451591</v>
+        <v>117.4753155936737</v>
       </c>
       <c r="L4" t="n">
-        <v>122.6967615368433</v>
+        <v>99.42028717617094</v>
       </c>
       <c r="M4" t="n">
-        <v>122.6804131709369</v>
+        <v>98.13863456013385</v>
       </c>
       <c r="N4" t="n">
-        <v>108.7919580877318</v>
+        <v>84.83372811872125</v>
       </c>
       <c r="O4" t="n">
-        <v>129.3665032546162</v>
+        <v>107.2372001263458</v>
       </c>
       <c r="P4" t="n">
-        <v>140.0260970042402</v>
+        <v>121.0906552227565</v>
       </c>
       <c r="Q4" t="n">
-        <v>186.3785526484676</v>
+        <v>173.2686342593179</v>
       </c>
       <c r="R4" t="n">
-        <v>239.7076266214307</v>
+        <v>232.668037396294</v>
       </c>
       <c r="S4" t="n">
-        <v>250.9220993726962</v>
+        <v>248.1936536499734</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8592750565288</v>
+        <v>219.1903290525226</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2422093919635</v>
+        <v>291.2336696557421</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22798,49 +22798,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.9500466959368</v>
+        <v>422.6759211308218</v>
       </c>
       <c r="H5" t="n">
-        <v>357.5402376039739</v>
+        <v>354.7328491602397</v>
       </c>
       <c r="I5" t="n">
-        <v>282.9498090659873</v>
+        <v>272.3815832168904</v>
       </c>
       <c r="J5" t="n">
-        <v>166.4804728462846</v>
+        <v>143.2144081641032</v>
       </c>
       <c r="K5" t="n">
-        <v>156.1709547060198</v>
+        <v>121.3011548525195</v>
       </c>
       <c r="L5" t="n">
-        <v>135.1920689991825</v>
+        <v>91.93299888229322</v>
       </c>
       <c r="M5" t="n">
-        <v>107.598740283027</v>
+        <v>59.46468964752347</v>
       </c>
       <c r="N5" t="n">
-        <v>107.578401186134</v>
+        <v>58.66549128874738</v>
       </c>
       <c r="O5" t="n">
-        <v>129.6483220454851</v>
+        <v>83.46124823621099</v>
       </c>
       <c r="P5" t="n">
-        <v>162.452644445732</v>
+        <v>123.0330455252351</v>
       </c>
       <c r="Q5" t="n">
-        <v>200.7884889780648</v>
+        <v>171.1860118582497</v>
       </c>
       <c r="R5" t="n">
-        <v>257.9941946855963</v>
+        <v>240.7746546559397</v>
       </c>
       <c r="S5" t="n">
-        <v>252.8017650064723</v>
+        <v>246.5551286914136</v>
       </c>
       <c r="T5" t="n">
-        <v>222.712032836916</v>
+        <v>221.512048175625</v>
       </c>
       <c r="U5" t="n">
-        <v>248.850391546474</v>
+        <v>248.8284615012647</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22877,22 +22877,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.4266721324923</v>
+        <v>161.2800020247046</v>
       </c>
       <c r="H6" t="n">
-        <v>141.7265670638711</v>
+        <v>140.310042601816</v>
       </c>
       <c r="I6" t="n">
-        <v>131.1257536355219</v>
+        <v>126.0759275559885</v>
       </c>
       <c r="J6" t="n">
-        <v>120.3553762767449</v>
+        <v>106.4982675405373</v>
       </c>
       <c r="K6" t="n">
-        <v>77.5220676342224</v>
+        <v>53.83806167623734</v>
       </c>
       <c r="L6" t="n">
-        <v>31.84606879838253</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22901,25 +22901,25 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>24.64768941402779</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>47.73023641391228</v>
+        <v>19.7226787259216</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.3803926892894</v>
+        <v>87.65808208817583</v>
       </c>
       <c r="R6" t="n">
-        <v>179.9541215291748</v>
+        <v>170.8477090474073</v>
       </c>
       <c r="S6" t="n">
-        <v>215.6697507169758</v>
+        <v>212.9454177938134</v>
       </c>
       <c r="T6" t="n">
-        <v>231.7547581384684</v>
+        <v>231.1635746776924</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6766403780998</v>
+        <v>249.6669910289033</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22956,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.5795418713374</v>
+        <v>169.4565785799364</v>
       </c>
       <c r="H7" t="n">
-        <v>170.6464146159834</v>
+        <v>169.5531591706183</v>
       </c>
       <c r="I7" t="n">
-        <v>178.115448587716</v>
+        <v>174.4176070608574</v>
       </c>
       <c r="J7" t="n">
-        <v>156.6831400104238</v>
+        <v>147.9896353083744</v>
       </c>
       <c r="K7" t="n">
-        <v>127.5656920941783</v>
+        <v>113.2795933295915</v>
       </c>
       <c r="L7" t="n">
-        <v>112.3324951017775</v>
+        <v>94.05120721476253</v>
       </c>
       <c r="M7" t="n">
-        <v>111.7527473925439</v>
+        <v>92.47769254138827</v>
       </c>
       <c r="N7" t="n">
-        <v>98.12412777701496</v>
+        <v>79.30739064835389</v>
       </c>
       <c r="O7" t="n">
-        <v>119.5130353242993</v>
+        <v>102.1327330088224</v>
       </c>
       <c r="P7" t="n">
-        <v>131.5947529506683</v>
+        <v>116.7229017797714</v>
       </c>
       <c r="Q7" t="n">
-        <v>180.5411270563561</v>
+        <v>170.2446281736794</v>
       </c>
       <c r="R7" t="n">
-        <v>236.5731236381951</v>
+        <v>231.0442469175655</v>
       </c>
       <c r="S7" t="n">
-        <v>249.7072101250491</v>
+        <v>247.5642953103611</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5614148862658</v>
+        <v>219.0360262775525</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2384069217048</v>
+        <v>291.2316998330829</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23035,49 +23035,49 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.9500466959368</v>
+        <v>422.4828842901392</v>
       </c>
       <c r="H8" t="n">
-        <v>357.5402376039739</v>
+        <v>352.7559106155991</v>
       </c>
       <c r="I8" t="n">
-        <v>282.9498090659874</v>
+        <v>264.9395304164745</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4804728462846</v>
+        <v>126.8306476072186</v>
       </c>
       <c r="K8" t="n">
-        <v>156.1709547060198</v>
+        <v>96.74614482954047</v>
       </c>
       <c r="L8" t="n">
-        <v>135.1920689991825</v>
+        <v>61.47033764627415</v>
       </c>
       <c r="M8" t="n">
-        <v>107.598740283027</v>
+        <v>25.56910949601524</v>
       </c>
       <c r="N8" t="n">
-        <v>107.578401186134</v>
+        <v>24.2214452136497</v>
       </c>
       <c r="O8" t="n">
-        <v>129.6483220454851</v>
+        <v>50.93671224565091</v>
       </c>
       <c r="P8" t="n">
-        <v>162.452644445732</v>
+        <v>95.27410653902666</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.7884889780648</v>
+        <v>150.3402047289868</v>
       </c>
       <c r="R8" t="n">
-        <v>257.9941946855963</v>
+        <v>228.6488042124114</v>
       </c>
       <c r="S8" t="n">
-        <v>252.8017650064723</v>
+        <v>242.1563016843589</v>
       </c>
       <c r="T8" t="n">
-        <v>222.712032836916</v>
+        <v>220.6670294055369</v>
       </c>
       <c r="U8" t="n">
-        <v>248.850391546474</v>
+        <v>248.8130185540101</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,22 +23114,22 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>161.4266721324923</v>
+        <v>161.176718209428</v>
       </c>
       <c r="H9" t="n">
-        <v>141.7265670638711</v>
+        <v>139.3125383858557</v>
       </c>
       <c r="I9" t="n">
-        <v>131.1257536355219</v>
+        <v>122.5198839159847</v>
       </c>
       <c r="J9" t="n">
-        <v>120.3553762767449</v>
+        <v>96.74021199285306</v>
       </c>
       <c r="K9" t="n">
-        <v>77.5220676342224</v>
+        <v>37.15999050502471</v>
       </c>
       <c r="L9" t="n">
-        <v>31.84606879838252</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23138,25 +23138,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>24.64768941402779</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>47.73023641391228</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>106.3803926892894</v>
+        <v>74.4739936679631</v>
       </c>
       <c r="R9" t="n">
-        <v>179.9541215291748</v>
+        <v>164.4350525164654</v>
       </c>
       <c r="S9" t="n">
-        <v>215.6697507169758</v>
+        <v>211.0269662249707</v>
       </c>
       <c r="T9" t="n">
-        <v>231.7547581384684</v>
+        <v>230.7472684222575</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6766403780998</v>
+        <v>249.6601960410561</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.5795418713374</v>
+        <v>169.3699888987368</v>
       </c>
       <c r="H10" t="n">
-        <v>170.6464146159834</v>
+        <v>168.7832981868615</v>
       </c>
       <c r="I10" t="n">
-        <v>178.115448587716</v>
+        <v>171.8136191935084</v>
       </c>
       <c r="J10" t="n">
-        <v>156.6831400104238</v>
+        <v>141.8677448475604</v>
       </c>
       <c r="K10" t="n">
-        <v>127.5656920941783</v>
+        <v>103.2194467320342</v>
       </c>
       <c r="L10" t="n">
-        <v>112.3324951017775</v>
+        <v>81.17768315713714</v>
       </c>
       <c r="M10" t="n">
-        <v>111.7527473925439</v>
+        <v>78.90436642388586</v>
       </c>
       <c r="N10" t="n">
-        <v>98.12412777701496</v>
+        <v>66.05680788805012</v>
       </c>
       <c r="O10" t="n">
-        <v>119.5130353242993</v>
+        <v>89.89367516071432</v>
       </c>
       <c r="P10" t="n">
-        <v>131.5947529506683</v>
+        <v>106.2502734281359</v>
       </c>
       <c r="Q10" t="n">
-        <v>180.5411270563561</v>
+        <v>162.9939231415902</v>
       </c>
       <c r="R10" t="n">
-        <v>236.5731236381951</v>
+        <v>227.150859979262</v>
       </c>
       <c r="S10" t="n">
-        <v>249.7072101250491</v>
+        <v>246.0552733207275</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5614148862658</v>
+        <v>218.6660521851541</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2384069217048</v>
+        <v>291.226976759563</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23272,22 +23272,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H11" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I11" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J11" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K11" t="n">
-        <v>78.22308851520961</v>
+        <v>58.29051612840931</v>
       </c>
       <c r="L11" t="n">
-        <v>38.49084836766588</v>
+        <v>13.7627297632223</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>26.40184904719004</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>74.33416843326191</v>
+        <v>51.80080109985101</v>
       </c>
       <c r="Q11" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R11" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S11" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T11" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U11" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23351,19 +23351,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H12" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I12" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J12" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K12" t="n">
-        <v>24.57889804244016</v>
+        <v>11.04044456262881</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.52858488856606</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R12" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S12" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T12" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H13" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I13" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J13" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K13" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719798</v>
       </c>
       <c r="L13" t="n">
-        <v>71.46654840866277</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M13" t="n">
-        <v>68.66533643318368</v>
+        <v>57.64716518774021</v>
       </c>
       <c r="N13" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511906</v>
       </c>
       <c r="O13" t="n">
-        <v>80.66114959698193</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P13" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621556</v>
       </c>
       <c r="Q13" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R13" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S13" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T13" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23509,22 +23509,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H14" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I14" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J14" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K14" t="n">
-        <v>78.22308851520961</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L14" t="n">
-        <v>38.49084836766588</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23533,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>26.40184904719004</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>74.33416843326191</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q14" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R14" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S14" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T14" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U14" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,19 +23588,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H15" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I15" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J15" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K15" t="n">
-        <v>24.57889804244016</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>64.52858488856606</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R15" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S15" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T15" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H16" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I16" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J16" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K16" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L16" t="n">
-        <v>71.46654840866277</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M16" t="n">
-        <v>68.66533643318368</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N16" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O16" t="n">
-        <v>80.66114959698193</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P16" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q16" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R16" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S16" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T16" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,22 +23746,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H17" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I17" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J17" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K17" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L17" t="n">
-        <v>38.49084836766588</v>
+        <v>13.76272976322227</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23770,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q17" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R17" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S17" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T17" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U17" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23825,19 +23825,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H18" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I18" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J18" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K18" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262879</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R18" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S18" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T18" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H19" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I19" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J19" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K19" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L19" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M19" t="n">
-        <v>68.6653364331837</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N19" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511905</v>
       </c>
       <c r="O19" t="n">
-        <v>80.66114959698194</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P19" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q19" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R19" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S19" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T19" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23983,22 +23983,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H20" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I20" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J20" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K20" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L20" t="n">
-        <v>38.49084836766588</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24007,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q20" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R20" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S20" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T20" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U20" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24062,19 +24062,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H21" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I21" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J21" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K21" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R21" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S21" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T21" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H22" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I22" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J22" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K22" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L22" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M22" t="n">
-        <v>68.6653364331837</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N22" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O22" t="n">
-        <v>80.66114959698194</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P22" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q22" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R22" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S22" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T22" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24220,22 +24220,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H23" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I23" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J23" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K23" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L23" t="n">
-        <v>38.49084836766588</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24244,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q23" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R23" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S23" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T23" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U23" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24299,19 +24299,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H24" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I24" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J24" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K24" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R24" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S24" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T24" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H25" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I25" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J25" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K25" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L25" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M25" t="n">
-        <v>68.6653364331837</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N25" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O25" t="n">
-        <v>80.66114959698194</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P25" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q25" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R25" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S25" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T25" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24457,22 +24457,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H26" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I26" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J26" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K26" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L26" t="n">
-        <v>38.49084836766588</v>
+        <v>13.76272976322227</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24481,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q26" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R26" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S26" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T26" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U26" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24536,19 +24536,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H27" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I27" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J27" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K27" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262879</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R27" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S27" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T27" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H28" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I28" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J28" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K28" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L28" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M28" t="n">
-        <v>68.6653364331837</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N28" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511905</v>
       </c>
       <c r="O28" t="n">
-        <v>80.66114959698194</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P28" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q28" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R28" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S28" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T28" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24694,22 +24694,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H29" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I29" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J29" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K29" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L29" t="n">
-        <v>38.49084836766588</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24718,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q29" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R29" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S29" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T29" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U29" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24773,19 +24773,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H30" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I30" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J30" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K30" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R30" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S30" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T30" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H31" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I31" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J31" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K31" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L31" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M31" t="n">
-        <v>68.6653364331837</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N31" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O31" t="n">
-        <v>80.66114959698194</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P31" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q31" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R31" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S31" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T31" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24931,22 +24931,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H32" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I32" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J32" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K32" t="n">
-        <v>78.22308851520964</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L32" t="n">
-        <v>38.49084836766588</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24955,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>26.40184904719007</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>74.33416843326194</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q32" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R32" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S32" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T32" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U32" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25010,19 +25010,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H33" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I33" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J33" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K33" t="n">
-        <v>24.57889804244017</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>64.52858488856607</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R33" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S33" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T33" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H34" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I34" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J34" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K34" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L34" t="n">
-        <v>71.46654840866279</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M34" t="n">
-        <v>68.6653364331837</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N34" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O34" t="n">
-        <v>80.66114959698194</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P34" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q34" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R34" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S34" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T34" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25168,22 +25168,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H35" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I35" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J35" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K35" t="n">
-        <v>78.22308851520961</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L35" t="n">
-        <v>38.49084836766588</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25192,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>26.40184904719004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>74.33416843326191</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q35" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R35" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S35" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T35" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U35" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25247,19 +25247,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H36" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I36" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J36" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K36" t="n">
-        <v>24.57889804244016</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>64.52858488856606</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R36" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S36" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T36" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H37" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I37" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J37" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K37" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L37" t="n">
-        <v>71.46654840866277</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M37" t="n">
-        <v>68.66533643318368</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N37" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O37" t="n">
-        <v>80.66114959698193</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P37" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q37" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R37" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S37" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T37" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25405,22 +25405,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H38" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I38" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J38" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K38" t="n">
-        <v>78.22308851520961</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L38" t="n">
-        <v>38.49084836766588</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25429,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>26.40184904719004</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>74.33416843326191</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q38" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R38" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S38" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T38" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U38" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,19 +25484,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H39" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I39" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J39" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K39" t="n">
-        <v>24.57889804244016</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>64.52858488856606</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R39" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S39" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T39" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H40" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I40" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J40" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K40" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L40" t="n">
-        <v>71.46654840866277</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M40" t="n">
-        <v>68.66533643318368</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N40" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O40" t="n">
-        <v>80.66114959698193</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P40" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q40" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R40" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S40" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T40" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25642,22 +25642,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>422.3372670711946</v>
+        <v>422.180569077725</v>
       </c>
       <c r="H41" t="n">
-        <v>351.2646082720821</v>
+        <v>349.6598249464623</v>
       </c>
       <c r="I41" t="n">
-        <v>259.3256225831108</v>
+        <v>253.2845231898766</v>
       </c>
       <c r="J41" t="n">
-        <v>114.4715681708149</v>
+        <v>101.17202184758</v>
       </c>
       <c r="K41" t="n">
-        <v>78.22308851520961</v>
+        <v>58.29051612840928</v>
       </c>
       <c r="L41" t="n">
-        <v>38.49084836766588</v>
+        <v>13.76272976322227</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25666,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>26.40184904719004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>74.33416843326191</v>
+        <v>51.80080109985099</v>
       </c>
       <c r="Q41" t="n">
-        <v>134.6151832766775</v>
+        <v>117.6935628343943</v>
       </c>
       <c r="R41" t="n">
-        <v>219.5016765828794</v>
+        <v>209.6584962505987</v>
       </c>
       <c r="S41" t="n">
-        <v>238.8380493076577</v>
+        <v>235.2672937814706</v>
       </c>
       <c r="T41" t="n">
-        <v>220.0295900296067</v>
+        <v>219.3436445631938</v>
       </c>
       <c r="U41" t="n">
-        <v>248.8013691764946</v>
+        <v>248.788833337017</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25721,19 +25721,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>161.0988061285559</v>
+        <v>161.0149653106349</v>
       </c>
       <c r="H42" t="n">
-        <v>138.5600717100643</v>
+        <v>137.7503459159327</v>
       </c>
       <c r="I42" t="n">
-        <v>119.8373846403433</v>
+        <v>116.9507599882392</v>
       </c>
       <c r="J42" t="n">
-        <v>89.37922894870135</v>
+        <v>81.45811026959613</v>
       </c>
       <c r="K42" t="n">
-        <v>24.57889804244016</v>
+        <v>11.04044456262879</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>64.52858488856606</v>
+        <v>53.82637802552915</v>
       </c>
       <c r="R42" t="n">
-        <v>159.5976691093343</v>
+        <v>154.3921839405207</v>
       </c>
       <c r="S42" t="n">
-        <v>209.5797834947361</v>
+        <v>208.0224770741423</v>
       </c>
       <c r="T42" t="n">
-        <v>230.4332280611984</v>
+        <v>230.0952907293151</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6550702462619</v>
+        <v>249.6495544029776</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.30467002737</v>
+        <v>169.2343807020206</v>
       </c>
       <c r="H43" t="n">
-        <v>168.2025540396188</v>
+        <v>167.5776180378764</v>
       </c>
       <c r="I43" t="n">
-        <v>169.8493025891331</v>
+        <v>167.7355108777182</v>
       </c>
       <c r="J43" t="n">
-        <v>137.2497006419296</v>
+        <v>132.2802453397308</v>
       </c>
       <c r="K43" t="n">
-        <v>95.63058149505842</v>
+        <v>87.46423987719797</v>
       </c>
       <c r="L43" t="n">
-        <v>71.46654840866277</v>
+        <v>61.01644271081538</v>
       </c>
       <c r="M43" t="n">
-        <v>68.66533643318368</v>
+        <v>57.6471651877402</v>
       </c>
       <c r="N43" t="n">
-        <v>56.06123914516952</v>
+        <v>45.30505538511905</v>
       </c>
       <c r="O43" t="n">
-        <v>80.66114959698193</v>
+        <v>70.7260729557852</v>
       </c>
       <c r="P43" t="n">
-        <v>98.35025284028562</v>
+        <v>89.84907843621555</v>
       </c>
       <c r="Q43" t="n">
-        <v>157.5243583765053</v>
+        <v>151.6385858692978</v>
       </c>
       <c r="R43" t="n">
-        <v>224.2138859994434</v>
+        <v>221.05342233419</v>
       </c>
       <c r="S43" t="n">
-        <v>244.9169435351811</v>
+        <v>243.6919922925021</v>
       </c>
       <c r="T43" t="n">
-        <v>218.3869624620415</v>
+        <v>218.0866353446397</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2234139120339</v>
+        <v>291.219579948833</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25894,7 +25894,7 @@
         <v>58.29051612840928</v>
       </c>
       <c r="L44" t="n">
-        <v>13.76272976322227</v>
+        <v>13.76272976322224</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>51.80080109985099</v>
       </c>
       <c r="Q44" t="n">
-        <v>117.6935628343943</v>
+        <v>117.6935628343942</v>
       </c>
       <c r="R44" t="n">
         <v>209.6584962505987</v>
@@ -25970,7 +25970,7 @@
         <v>81.45811026959613</v>
       </c>
       <c r="K45" t="n">
-        <v>11.04044456262879</v>
+        <v>11.04044456262878</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,7 +25988,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>53.82637802552915</v>
+        <v>53.82637802552914</v>
       </c>
       <c r="R45" t="n">
         <v>154.3921839405207</v>
@@ -26052,22 +26052,22 @@
         <v>87.46423987719797</v>
       </c>
       <c r="L46" t="n">
-        <v>61.01644271081538</v>
+        <v>61.01644271081537</v>
       </c>
       <c r="M46" t="n">
         <v>57.6471651877402</v>
       </c>
       <c r="N46" t="n">
-        <v>45.30505538511905</v>
+        <v>45.30505538511903</v>
       </c>
       <c r="O46" t="n">
-        <v>70.7260729557852</v>
+        <v>70.72607295578518</v>
       </c>
       <c r="P46" t="n">
         <v>89.84907843621555</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.6385858692978</v>
+        <v>151.6385858692977</v>
       </c>
       <c r="R46" t="n">
         <v>221.05342233419</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>246494.1752762593</v>
+        <v>320058.2020336832</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>279980.8142762618</v>
+        <v>336081.9869534603</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>279980.8142762618</v>
+        <v>373099.9530637995</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>399887.1695543631</v>
+        <v>422422.0104455853</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>399887.1695543631</v>
+        <v>422422.0104455853</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>399887.1695543631</v>
+        <v>422422.0104455853</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>399887.1695543631</v>
+        <v>422422.0104455853</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>399887.1695543631</v>
+        <v>422422.0104455853</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>399887.1695543631</v>
+        <v>422422.0104455853</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>399887.1695543631</v>
+        <v>422422.0104455853</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>399887.1695543631</v>
+        <v>422422.0104455853</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>399887.1695543631</v>
+        <v>422422.0104455853</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>399887.1695543631</v>
+        <v>422422.0104455853</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>399887.1695543631</v>
+        <v>422422.0104455853</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45956.54115320093</v>
+        <v>59671.86817577146</v>
       </c>
       <c r="C2" t="n">
-        <v>52199.81283116746</v>
+        <v>62659.35349979767</v>
       </c>
       <c r="D2" t="n">
-        <v>52199.81283116747</v>
+        <v>69561.00819833546</v>
       </c>
       <c r="E2" t="n">
-        <v>74555.23500166096</v>
+        <v>78756.64601527857</v>
       </c>
       <c r="F2" t="n">
-        <v>74555.23500166096</v>
+        <v>78756.64601527857</v>
       </c>
       <c r="G2" t="n">
-        <v>74555.23500166091</v>
+        <v>78756.64601527862</v>
       </c>
       <c r="H2" t="n">
-        <v>74555.23500166091</v>
+        <v>78756.64601527857</v>
       </c>
       <c r="I2" t="n">
-        <v>74555.23500166091</v>
+        <v>78756.64601527862</v>
       </c>
       <c r="J2" t="n">
-        <v>74555.23500166093</v>
+        <v>78756.64601527862</v>
       </c>
       <c r="K2" t="n">
-        <v>74555.23500166094</v>
+        <v>78756.6460152786</v>
       </c>
       <c r="L2" t="n">
-        <v>74555.23500166096</v>
+        <v>78756.6460152786</v>
       </c>
       <c r="M2" t="n">
-        <v>74555.23500166096</v>
+        <v>78756.6460152786</v>
       </c>
       <c r="N2" t="n">
-        <v>74555.23500166096</v>
+        <v>78756.64601527862</v>
       </c>
       <c r="O2" t="n">
-        <v>74555.23500166096</v>
+        <v>78756.64601527859</v>
       </c>
       <c r="P2" t="n">
-        <v>78756.64601527862</v>
+        <v>78756.6460152786</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116197.325017146</v>
+        <v>199858.8335517397</v>
       </c>
       <c r="C3" t="n">
-        <v>35202.45972866162</v>
+        <v>18236.19860658703</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>41123.21390299121</v>
       </c>
       <c r="E3" t="n">
-        <v>122461.8609781335</v>
+        <v>60416.6359640498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>25943.23789574294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36256.35416310675</v>
+        <v>38149.04436763299</v>
       </c>
       <c r="C5" t="n">
-        <v>37099.10832143807</v>
+        <v>38585.62272966557</v>
       </c>
       <c r="D5" t="n">
-        <v>37099.10832143807</v>
+        <v>39632.41325747713</v>
       </c>
       <c r="E5" t="n">
-        <v>6794.459031509247</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="F5" t="n">
-        <v>6794.459031509247</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="G5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="H5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="I5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="J5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="K5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="L5" t="n">
-        <v>6794.459031509246</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="M5" t="n">
-        <v>6794.459031509247</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="N5" t="n">
-        <v>6794.459031509247</v>
+        <v>7644.193075596167</v>
       </c>
       <c r="O5" t="n">
-        <v>6794.459031509247</v>
+        <v>7644.193075596166</v>
       </c>
       <c r="P5" t="n">
-        <v>7644.193075596166</v>
+        <v>7644.193075596167</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-106497.1380270518</v>
+        <v>-196731.4307793247</v>
       </c>
       <c r="C6" t="n">
-        <v>-20101.75521893222</v>
+        <v>-12286.29929726697</v>
       </c>
       <c r="D6" t="n">
-        <v>15100.7045097294</v>
+        <v>-28691.02726853239</v>
       </c>
       <c r="E6" t="n">
-        <v>-54701.08500798176</v>
+        <v>-5964.624256499355</v>
       </c>
       <c r="F6" t="n">
-        <v>67760.77597015171</v>
+        <v>54452.01170755045</v>
       </c>
       <c r="G6" t="n">
-        <v>67760.77597015166</v>
+        <v>54452.0117075505</v>
       </c>
       <c r="H6" t="n">
-        <v>67760.77597015166</v>
+        <v>54452.01170755045</v>
       </c>
       <c r="I6" t="n">
-        <v>67760.77597015166</v>
+        <v>54452.0117075505</v>
       </c>
       <c r="J6" t="n">
-        <v>67760.77597015168</v>
+        <v>54452.0117075505</v>
       </c>
       <c r="K6" t="n">
-        <v>67760.77597015169</v>
+        <v>54452.01170755048</v>
       </c>
       <c r="L6" t="n">
-        <v>67760.77597015171</v>
+        <v>54452.01170755048</v>
       </c>
       <c r="M6" t="n">
-        <v>67760.77597015171</v>
+        <v>54452.01170755048</v>
       </c>
       <c r="N6" t="n">
-        <v>67760.77597015171</v>
+        <v>54452.0117075505</v>
       </c>
       <c r="O6" t="n">
-        <v>67760.77597015171</v>
+        <v>54452.01170755047</v>
       </c>
       <c r="P6" t="n">
-        <v>45169.21504393951</v>
+        <v>54452.01170755048</v>
       </c>
     </row>
   </sheetData>
@@ -26737,46 +26737,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.5850533535205</v>
+        <v>207.405704937293</v>
       </c>
       <c r="C3" t="n">
-        <v>159.2435009833979</v>
+        <v>227.4322353057602</v>
       </c>
       <c r="D3" t="n">
-        <v>159.2435009833979</v>
+        <v>275.4501494255565</v>
       </c>
       <c r="E3" t="n">
-        <v>311.6724326380389</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="F3" t="n">
-        <v>311.6724326380389</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="G3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="H3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="I3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="J3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="K3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="L3" t="n">
-        <v>311.6724326380388</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="M3" t="n">
-        <v>311.6724326380389</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="N3" t="n">
-        <v>311.6724326380389</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="O3" t="n">
-        <v>311.6724326380389</v>
+        <v>350.6510585135856</v>
       </c>
       <c r="P3" t="n">
         <v>350.6510585135856</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.5850533535205</v>
+        <v>207.405704937293</v>
       </c>
       <c r="C3" t="n">
-        <v>38.6584476298774</v>
+        <v>20.02653036846726</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>48.01791411979627</v>
       </c>
       <c r="E3" t="n">
-        <v>152.4289316546409</v>
+        <v>75.20090908802905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>38.97862587554681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4847640335819916</v>
+        <v>0.8337917786423832</v>
       </c>
       <c r="H2" t="n">
-        <v>4.964589658921573</v>
+        <v>8.539070053021309</v>
       </c>
       <c r="I2" t="n">
-        <v>18.68886540466975</v>
+        <v>32.14475754611051</v>
       </c>
       <c r="J2" t="n">
-        <v>41.1437413952296</v>
+        <v>70.76703497254903</v>
       </c>
       <c r="K2" t="n">
-        <v>61.66380293675531</v>
+        <v>106.0614409624811</v>
       </c>
       <c r="L2" t="n">
-        <v>76.49940022949021</v>
+        <v>131.578596108108</v>
       </c>
       <c r="M2" t="n">
-        <v>85.12032261170395</v>
+        <v>146.4065406515395</v>
       </c>
       <c r="N2" t="n">
-        <v>86.49765842211877</v>
+        <v>148.7755515426072</v>
       </c>
       <c r="O2" t="n">
-        <v>81.67728606318785</v>
+        <v>140.4845345437319</v>
       </c>
       <c r="P2" t="n">
-        <v>69.70967398413242</v>
+        <v>119.9003000084981</v>
       </c>
       <c r="Q2" t="n">
-        <v>52.34906203147732</v>
+        <v>90.04013193586772</v>
       </c>
       <c r="R2" t="n">
-        <v>30.4510587244948</v>
+        <v>52.37567281514465</v>
       </c>
       <c r="S2" t="n">
-        <v>11.04656041524964</v>
+        <v>19.00003015581333</v>
       </c>
       <c r="T2" t="n">
-        <v>2.122054557005169</v>
+        <v>3.649923511007034</v>
       </c>
       <c r="U2" t="n">
-        <v>0.03878112268655932</v>
+        <v>0.06670334229139063</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2593716241943649</v>
+        <v>0.4461179313745547</v>
       </c>
       <c r="H3" t="n">
-        <v>2.504983844192945</v>
+        <v>4.3085600214332</v>
       </c>
       <c r="I3" t="n">
-        <v>8.930119517218264</v>
+        <v>15.35976211092217</v>
       </c>
       <c r="J3" t="n">
-        <v>24.50493051215269</v>
+        <v>42.14836122692669</v>
       </c>
       <c r="K3" t="n">
-        <v>41.88282933317514</v>
+        <v>72.03826262902184</v>
       </c>
       <c r="L3" t="n">
-        <v>56.31663270062295</v>
+        <v>96.86433417849707</v>
       </c>
       <c r="M3" t="n">
-        <v>65.71885407766867</v>
+        <v>113.0361091908247</v>
       </c>
       <c r="N3" t="n">
         <v>67.45823659255106</v>
       </c>
       <c r="O3" t="n">
-        <v>61.71110744592855</v>
+        <v>106.1428044880503</v>
       </c>
       <c r="P3" t="n">
-        <v>49.52860427269411</v>
+        <v>85.18895831660248</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.10856030944208</v>
+        <v>56.94656260844317</v>
       </c>
       <c r="R3" t="n">
-        <v>16.10379259690978</v>
+        <v>27.69844489709736</v>
       </c>
       <c r="S3" t="n">
-        <v>4.817714159926028</v>
+        <v>8.286444909522974</v>
       </c>
       <c r="T3" t="n">
-        <v>1.045449660678163</v>
+        <v>1.798168328654455</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01706392264436611</v>
+        <v>0.02934986390622072</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2174484568670041</v>
+        <v>0.3740102875918398</v>
       </c>
       <c r="H4" t="n">
-        <v>1.933314461963002</v>
+        <v>3.325291466043814</v>
       </c>
       <c r="I4" t="n">
-        <v>6.539268139236817</v>
+        <v>11.24750937594369</v>
       </c>
       <c r="J4" t="n">
-        <v>15.37360590049719</v>
+        <v>26.44252733274307</v>
       </c>
       <c r="K4" t="n">
-        <v>25.26355707963921</v>
+        <v>43.45319523112465</v>
       </c>
       <c r="L4" t="n">
-        <v>32.32865512366352</v>
+        <v>55.6051294843359</v>
       </c>
       <c r="M4" t="n">
-        <v>34.08603401597956</v>
+        <v>58.62781262678266</v>
       </c>
       <c r="N4" t="n">
-        <v>33.27554431311167</v>
+        <v>57.23377428212221</v>
       </c>
       <c r="O4" t="n">
-        <v>30.73535097607438</v>
+        <v>52.86465410434479</v>
       </c>
       <c r="P4" t="n">
-        <v>26.29940245598748</v>
+        <v>45.23484423747121</v>
       </c>
       <c r="Q4" t="n">
-        <v>18.2083430563816</v>
+        <v>31.31826144553124</v>
       </c>
       <c r="R4" t="n">
-        <v>9.777273342401839</v>
+        <v>16.81686256753854</v>
       </c>
       <c r="S4" t="n">
-        <v>3.78953356194588</v>
+        <v>6.517979284668696</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9290979520681084</v>
+        <v>1.598043956074224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01186082492001842</v>
+        <v>0.0204005611413731</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6401748783252171</v>
+        <v>0.9143004434402414</v>
       </c>
       <c r="H5" t="n">
-        <v>6.556190972648132</v>
+        <v>9.363579416382375</v>
       </c>
       <c r="I5" t="n">
-        <v>24.68034199663296</v>
+        <v>35.24856784572994</v>
       </c>
       <c r="J5" t="n">
-        <v>54.33404257925495</v>
+        <v>77.60010726143626</v>
       </c>
       <c r="K5" t="n">
-        <v>81.4326451787614</v>
+        <v>116.3024450322617</v>
       </c>
       <c r="L5" t="n">
-        <v>101.0243971113068</v>
+        <v>144.283467228196</v>
       </c>
       <c r="M5" t="n">
-        <v>112.4091071037229</v>
+        <v>160.5431577392264</v>
       </c>
       <c r="N5" t="n">
-        <v>114.2280039767644</v>
+        <v>163.140913874151</v>
       </c>
       <c r="O5" t="n">
-        <v>107.862265030418</v>
+        <v>154.0493388396921</v>
       </c>
       <c r="P5" t="n">
-        <v>92.05794772176419</v>
+        <v>131.4775466422611</v>
       </c>
       <c r="Q5" t="n">
-        <v>69.13168489174234</v>
+        <v>98.73416201155744</v>
       </c>
       <c r="R5" t="n">
-        <v>40.21338520059646</v>
+        <v>57.43292523025311</v>
       </c>
       <c r="S5" t="n">
-        <v>14.5879850398359</v>
+        <v>20.83462135489452</v>
       </c>
       <c r="T5" t="n">
-        <v>2.802365529868639</v>
+        <v>4.002350191159659</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05121399026601737</v>
+        <v>0.0731440354752193</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3425237568322143</v>
+        <v>0.4891938646199371</v>
       </c>
       <c r="H6" t="n">
-        <v>3.308058388353229</v>
+        <v>4.724582850408341</v>
       </c>
       <c r="I6" t="n">
-        <v>11.79303285584598</v>
+        <v>16.84285893537941</v>
       </c>
       <c r="J6" t="n">
-        <v>32.36098353474882</v>
+        <v>46.21809227095643</v>
       </c>
       <c r="K6" t="n">
-        <v>55.31007524250717</v>
+        <v>78.99408120049222</v>
       </c>
       <c r="L6" t="n">
-        <v>74.37122185078408</v>
+        <v>106.2172906491666</v>
       </c>
       <c r="M6" t="n">
         <v>86.78770803595184</v>
       </c>
       <c r="N6" t="n">
-        <v>89.08472042277842</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O6" t="n">
-        <v>81.49511507402251</v>
+        <v>116.3916647984111</v>
       </c>
       <c r="P6" t="n">
-        <v>65.40701458316205</v>
+        <v>93.41457227115274</v>
       </c>
       <c r="Q6" t="n">
-        <v>43.72285710019634</v>
+        <v>62.44516770130988</v>
       </c>
       <c r="R6" t="n">
-        <v>21.26651886717907</v>
+        <v>30.37293134894663</v>
       </c>
       <c r="S6" t="n">
-        <v>6.362228553440469</v>
+        <v>9.086561476602773</v>
       </c>
       <c r="T6" t="n">
-        <v>1.380611107582478</v>
+        <v>1.97179456835843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0225344576863299</v>
+        <v>0.03218380688289061</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.287160411609406</v>
+        <v>0.4101237030103873</v>
       </c>
       <c r="H7" t="n">
-        <v>2.553117114127266</v>
+        <v>3.646372559492355</v>
       </c>
       <c r="I7" t="n">
-        <v>8.635696741853776</v>
+        <v>12.33353826871238</v>
       </c>
       <c r="J7" t="n">
-        <v>20.302241100785</v>
+        <v>28.99574580283438</v>
       </c>
       <c r="K7" t="n">
-        <v>33.36281873062007</v>
+        <v>47.6489174952068</v>
       </c>
       <c r="L7" t="n">
-        <v>42.69292155872933</v>
+        <v>60.97420944574431</v>
       </c>
       <c r="M7" t="n">
-        <v>45.01369979437261</v>
+        <v>64.28875464552824</v>
       </c>
       <c r="N7" t="n">
-        <v>43.9433746238285</v>
+        <v>62.76011175248958</v>
       </c>
       <c r="O7" t="n">
-        <v>40.58881890639133</v>
+        <v>57.96912122186821</v>
       </c>
       <c r="P7" t="n">
-        <v>34.73074650955942</v>
+        <v>49.60259768045627</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.04576864849308</v>
+        <v>34.3422675311698</v>
       </c>
       <c r="R7" t="n">
-        <v>12.91177632563747</v>
+        <v>18.44065304626704</v>
       </c>
       <c r="S7" t="n">
-        <v>5.00442280959301</v>
+        <v>7.147337624281018</v>
       </c>
       <c r="T7" t="n">
-        <v>1.226958122331098</v>
+        <v>1.752346731044381</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01566329517869489</v>
+        <v>0.0223703838005666</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6401748783252171</v>
+        <v>1.107337284122839</v>
       </c>
       <c r="H8" t="n">
-        <v>6.556190972648132</v>
+        <v>11.34051796102303</v>
       </c>
       <c r="I8" t="n">
-        <v>24.68034199663296</v>
+        <v>42.6906206461458</v>
       </c>
       <c r="J8" t="n">
-        <v>54.33404257925495</v>
+        <v>93.98386781832092</v>
       </c>
       <c r="K8" t="n">
-        <v>81.4326451787614</v>
+        <v>140.8574550552407</v>
       </c>
       <c r="L8" t="n">
-        <v>101.0243971113068</v>
+        <v>174.7461284642151</v>
       </c>
       <c r="M8" t="n">
-        <v>112.4091071037229</v>
+        <v>194.4387378907346</v>
       </c>
       <c r="N8" t="n">
-        <v>114.2280039767644</v>
+        <v>197.5849599492487</v>
       </c>
       <c r="O8" t="n">
-        <v>107.862265030418</v>
+        <v>186.5738748302522</v>
       </c>
       <c r="P8" t="n">
-        <v>92.05794772176421</v>
+        <v>159.2364856284696</v>
       </c>
       <c r="Q8" t="n">
-        <v>69.13168489174234</v>
+        <v>119.5799691408203</v>
       </c>
       <c r="R8" t="n">
-        <v>40.21338520059646</v>
+        <v>69.55877567378137</v>
       </c>
       <c r="S8" t="n">
-        <v>14.5879850398359</v>
+        <v>25.23344836194923</v>
       </c>
       <c r="T8" t="n">
-        <v>2.80236552986864</v>
+        <v>4.847368961247732</v>
       </c>
       <c r="U8" t="n">
-        <v>0.05121399026601736</v>
+        <v>0.08858698272982712</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3425237568322144</v>
+        <v>0.5924776798964799</v>
       </c>
       <c r="H9" t="n">
-        <v>3.308058388353229</v>
+        <v>5.722087066368637</v>
       </c>
       <c r="I9" t="n">
-        <v>11.79303285584598</v>
+        <v>20.39890257538319</v>
       </c>
       <c r="J9" t="n">
-        <v>32.36098353474882</v>
+        <v>55.97614781864069</v>
       </c>
       <c r="K9" t="n">
-        <v>55.31007524250717</v>
+        <v>95.67215237170485</v>
       </c>
       <c r="L9" t="n">
-        <v>74.3712218507841</v>
+        <v>128.6430155406809</v>
       </c>
       <c r="M9" t="n">
         <v>86.78770803595184</v>
       </c>
       <c r="N9" t="n">
-        <v>89.08472042277842</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O9" t="n">
-        <v>81.49511507402251</v>
+        <v>140.9655118480015</v>
       </c>
       <c r="P9" t="n">
-        <v>65.40701458316205</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q9" t="n">
-        <v>43.72285710019635</v>
+        <v>75.62925612152262</v>
       </c>
       <c r="R9" t="n">
-        <v>21.26651886717907</v>
+        <v>36.78558787988848</v>
       </c>
       <c r="S9" t="n">
-        <v>6.362228553440469</v>
+        <v>11.00501304544558</v>
       </c>
       <c r="T9" t="n">
-        <v>1.380611107582477</v>
+        <v>2.388100823793267</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0225344576863299</v>
+        <v>0.03897879473003159</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.287160411609406</v>
+        <v>0.4967133842100198</v>
       </c>
       <c r="H10" t="n">
-        <v>2.553117114127266</v>
+        <v>4.416233543249088</v>
       </c>
       <c r="I10" t="n">
-        <v>8.635696741853776</v>
+        <v>14.93752613606133</v>
       </c>
       <c r="J10" t="n">
-        <v>20.302241100785</v>
+        <v>35.1176362636484</v>
       </c>
       <c r="K10" t="n">
-        <v>33.36281873062007</v>
+        <v>57.70906409276411</v>
       </c>
       <c r="L10" t="n">
-        <v>42.69292155872933</v>
+        <v>73.8477335033697</v>
       </c>
       <c r="M10" t="n">
-        <v>45.01369979437261</v>
+        <v>77.86208076303065</v>
       </c>
       <c r="N10" t="n">
-        <v>43.9433746238285</v>
+        <v>76.01069451279335</v>
       </c>
       <c r="O10" t="n">
-        <v>40.58881890639133</v>
+        <v>70.20817906997628</v>
       </c>
       <c r="P10" t="n">
-        <v>34.73074650955942</v>
+        <v>60.07522603209183</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.04576864849308</v>
+        <v>41.59297256325902</v>
       </c>
       <c r="R10" t="n">
-        <v>12.91177632563747</v>
+        <v>22.33403998457052</v>
       </c>
       <c r="S10" t="n">
-        <v>5.00442280959301</v>
+        <v>8.656359613914615</v>
       </c>
       <c r="T10" t="n">
-        <v>1.226958122331098</v>
+        <v>2.122320823442811</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01566329517869489</v>
+        <v>0.02709345732054657</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537026</v>
       </c>
       <c r="H11" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015982</v>
       </c>
       <c r="I11" t="n">
-        <v>48.30452847950953</v>
+        <v>54.34562787274375</v>
       </c>
       <c r="J11" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K11" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L11" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M11" t="n">
-        <v>220.0078473867499</v>
+        <v>247.5226439325573</v>
       </c>
       <c r="N11" t="n">
         <v>221.8064051628984</v>
       </c>
       <c r="O11" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P11" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q11" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R11" t="n">
-        <v>78.70590330331341</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S11" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T11" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H12" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I12" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312874</v>
       </c>
       <c r="J12" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K12" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L12" t="n">
         <v>106.2172906491666</v>
       </c>
       <c r="M12" t="n">
-        <v>169.8614757877311</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N12" t="n">
-        <v>174.3572036132365</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O12" t="n">
-        <v>159.5027778614688</v>
+        <v>106.1428044880503</v>
       </c>
       <c r="P12" t="n">
         <v>113.1372509970743</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.57466490091966</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R12" t="n">
-        <v>41.62297128701962</v>
+        <v>46.8284564558332</v>
       </c>
       <c r="S12" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T12" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852628</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261378</v>
       </c>
       <c r="H13" t="n">
-        <v>4.996977690491839</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I13" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J13" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147794</v>
       </c>
       <c r="K13" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760035</v>
       </c>
       <c r="L13" t="n">
-        <v>83.55886825184406</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M13" t="n">
-        <v>88.10111075373283</v>
+        <v>99.11928199917629</v>
       </c>
       <c r="N13" t="n">
-        <v>86.00626325567394</v>
+        <v>96.7624470157244</v>
       </c>
       <c r="O13" t="n">
-        <v>79.44070463370868</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401213</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R13" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S13" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T13" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H14" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I14" t="n">
-        <v>48.30452847950953</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J14" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K14" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L14" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M14" t="n">
         <v>220.0078473867499</v>
@@ -32013,25 +32013,25 @@
         <v>221.8064051628984</v>
       </c>
       <c r="O14" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P14" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R14" t="n">
-        <v>78.70590330331341</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S14" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T14" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H15" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I15" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J15" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K15" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L15" t="n">
         <v>106.2172906491666</v>
       </c>
       <c r="M15" t="n">
-        <v>169.8614757877311</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N15" t="n">
-        <v>174.3572036132365</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O15" t="n">
         <v>106.1428044880503</v>
@@ -32098,19 +32098,19 @@
         <v>113.1372509970743</v>
       </c>
       <c r="Q15" t="n">
-        <v>85.57466490091966</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R15" t="n">
-        <v>41.62297128701962</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S15" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T15" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H16" t="n">
-        <v>4.996977690491839</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I16" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J16" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K16" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L16" t="n">
-        <v>83.55886825184406</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M16" t="n">
-        <v>88.10111075373283</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N16" t="n">
-        <v>86.00626325567394</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O16" t="n">
-        <v>79.44070463370868</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R16" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S16" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T16" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H17" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I17" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274376</v>
       </c>
       <c r="J17" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K17" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L17" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M17" t="n">
         <v>220.0078473867499</v>
@@ -32250,25 +32250,25 @@
         <v>221.8064051628984</v>
       </c>
       <c r="O17" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P17" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q17" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R17" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S17" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T17" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H18" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I18" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J18" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K18" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L18" t="n">
-        <v>106.2172906491666</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M18" t="n">
-        <v>86.78770803595184</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N18" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O18" t="n">
-        <v>106.1428044880503</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P18" t="n">
         <v>113.1372509970743</v>
       </c>
       <c r="Q18" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R18" t="n">
-        <v>41.62297128701962</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S18" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T18" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H19" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I19" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J19" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K19" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L19" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M19" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N19" t="n">
-        <v>86.00626325567394</v>
+        <v>96.76244701572442</v>
       </c>
       <c r="O19" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q19" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R19" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S19" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T19" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H20" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I20" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J20" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K20" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L20" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M20" t="n">
         <v>220.0078473867499</v>
@@ -32487,25 +32487,25 @@
         <v>221.8064051628984</v>
       </c>
       <c r="O20" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P20" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q20" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R20" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S20" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T20" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H21" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I21" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J21" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K21" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L21" t="n">
-        <v>106.2172906491666</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M21" t="n">
-        <v>169.8614757877311</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N21" t="n">
-        <v>174.3572036132365</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O21" t="n">
-        <v>106.1428044880503</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P21" t="n">
         <v>113.1372509970743</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R21" t="n">
-        <v>41.62297128701962</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S21" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T21" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H22" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I22" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J22" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K22" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L22" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M22" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N22" t="n">
-        <v>86.00626325567394</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O22" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R22" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S22" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T22" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H23" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I23" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J23" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K23" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L23" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M23" t="n">
         <v>220.0078473867499</v>
       </c>
       <c r="N23" t="n">
-        <v>223.5678043685904</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O23" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P23" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q23" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R23" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S23" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T23" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H24" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I24" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J24" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K24" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L24" t="n">
-        <v>106.2172906491666</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M24" t="n">
-        <v>169.8614757877311</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N24" t="n">
-        <v>174.3572036132365</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O24" t="n">
-        <v>106.1428044880503</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P24" t="n">
         <v>113.1372509970743</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R24" t="n">
-        <v>41.62297128701962</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S24" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T24" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H25" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I25" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J25" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K25" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L25" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M25" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N25" t="n">
-        <v>86.00626325567394</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O25" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R25" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S25" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T25" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H26" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I26" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274376</v>
       </c>
       <c r="J26" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K26" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L26" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M26" t="n">
         <v>220.0078473867499</v>
@@ -32961,25 +32961,25 @@
         <v>221.8064051628984</v>
       </c>
       <c r="O26" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P26" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R26" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S26" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T26" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H27" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I27" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J27" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K27" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L27" t="n">
-        <v>145.559846959869</v>
+        <v>163.7639684124062</v>
       </c>
       <c r="M27" t="n">
-        <v>169.8614757877311</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N27" t="n">
-        <v>174.3572036132365</v>
+        <v>192.087253921875</v>
       </c>
       <c r="O27" t="n">
-        <v>159.5027778614688</v>
+        <v>179.4506412376083</v>
       </c>
       <c r="P27" t="n">
         <v>113.1372509970743</v>
       </c>
       <c r="Q27" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R27" t="n">
-        <v>41.62297128701962</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S27" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T27" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H28" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I28" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J28" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K28" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L28" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M28" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N28" t="n">
-        <v>86.00626325567394</v>
+        <v>96.76244701572442</v>
       </c>
       <c r="O28" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R28" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S28" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T28" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H29" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I29" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J29" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K29" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L29" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M29" t="n">
         <v>220.0078473867499</v>
       </c>
       <c r="N29" t="n">
-        <v>223.5678043685904</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O29" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P29" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q29" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R29" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S29" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T29" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H30" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I30" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J30" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K30" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L30" t="n">
         <v>106.2172906491666</v>
@@ -33274,7 +33274,7 @@
         <v>86.78770803595184</v>
       </c>
       <c r="N30" t="n">
-        <v>174.3572036132365</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O30" t="n">
         <v>106.1428044880503</v>
@@ -33283,19 +33283,19 @@
         <v>113.1372509970743</v>
       </c>
       <c r="Q30" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R30" t="n">
-        <v>41.62297128701962</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S30" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T30" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H31" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I31" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J31" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K31" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L31" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M31" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N31" t="n">
-        <v>86.00626325567394</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O31" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R31" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S31" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T31" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H32" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I32" t="n">
-        <v>48.30452847950952</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K32" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L32" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M32" t="n">
         <v>220.0078473867499</v>
@@ -33435,25 +33435,25 @@
         <v>221.8064051628984</v>
       </c>
       <c r="O32" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P32" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q32" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R32" t="n">
-        <v>78.70590330331339</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S32" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T32" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6703897607686118</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H33" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I33" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J33" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K33" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L33" t="n">
         <v>106.2172906491666</v>
@@ -33514,25 +33514,25 @@
         <v>67.45823659255106</v>
       </c>
       <c r="O33" t="n">
-        <v>159.5027778614688</v>
+        <v>106.1428044880503</v>
       </c>
       <c r="P33" t="n">
         <v>113.1372509970743</v>
       </c>
       <c r="Q33" t="n">
-        <v>85.57466490091964</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R33" t="n">
-        <v>41.62297128701962</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S33" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T33" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H34" t="n">
-        <v>4.996977690491838</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I34" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J34" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K34" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L34" t="n">
-        <v>83.55886825184405</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M34" t="n">
-        <v>88.10111075373281</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N34" t="n">
-        <v>86.00626325567394</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O34" t="n">
-        <v>79.44070463370866</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R34" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S34" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T34" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03065630484964319</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H35" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I35" t="n">
-        <v>48.30452847950953</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J35" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K35" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L35" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M35" t="n">
         <v>220.0078473867499</v>
       </c>
       <c r="N35" t="n">
-        <v>223.5678043685904</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O35" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P35" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q35" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R35" t="n">
-        <v>78.70590330331341</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S35" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T35" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H36" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I36" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J36" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K36" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L36" t="n">
-        <v>145.559846959869</v>
+        <v>106.2172906491666</v>
       </c>
       <c r="M36" t="n">
         <v>86.78770803595184</v>
@@ -33751,25 +33751,25 @@
         <v>67.45823659255106</v>
       </c>
       <c r="O36" t="n">
-        <v>159.5027778614688</v>
+        <v>106.1428044880503</v>
       </c>
       <c r="P36" t="n">
-        <v>128.015041247122</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q36" t="n">
-        <v>85.57466490091966</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R36" t="n">
-        <v>41.62297128701962</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S36" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T36" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H37" t="n">
-        <v>4.996977690491839</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I37" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J37" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K37" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L37" t="n">
-        <v>83.55886825184406</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M37" t="n">
-        <v>88.10111075373283</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N37" t="n">
-        <v>86.00626325567394</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O37" t="n">
-        <v>79.44070463370868</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R37" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S37" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T37" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H38" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I38" t="n">
-        <v>48.30452847950953</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J38" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K38" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L38" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M38" t="n">
         <v>220.0078473867499</v>
       </c>
       <c r="N38" t="n">
-        <v>223.5678043685904</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O38" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P38" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R38" t="n">
-        <v>78.70590330331341</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S38" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T38" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H39" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I39" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J39" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K39" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L39" t="n">
-        <v>145.559846959869</v>
+        <v>106.2172906491666</v>
       </c>
       <c r="M39" t="n">
         <v>86.78770803595184</v>
       </c>
       <c r="N39" t="n">
-        <v>174.3572036132365</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O39" t="n">
         <v>106.1428044880503</v>
       </c>
       <c r="P39" t="n">
-        <v>128.015041247122</v>
+        <v>113.1372509970743</v>
       </c>
       <c r="Q39" t="n">
-        <v>85.57466490091966</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R39" t="n">
-        <v>41.62297128701962</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S39" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T39" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H40" t="n">
-        <v>4.996977690491839</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I40" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J40" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K40" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L40" t="n">
-        <v>83.55886825184406</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M40" t="n">
-        <v>88.10111075373283</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N40" t="n">
-        <v>86.00626325567394</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O40" t="n">
-        <v>79.44070463370868</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R40" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S40" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T40" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.252954503067492</v>
+        <v>1.409652496537027</v>
       </c>
       <c r="H41" t="n">
-        <v>12.83182030453995</v>
+        <v>14.43660363015983</v>
       </c>
       <c r="I41" t="n">
-        <v>48.30452847950953</v>
+        <v>54.34562787274376</v>
       </c>
       <c r="J41" t="n">
-        <v>106.3429472547246</v>
+        <v>119.6424935779595</v>
       </c>
       <c r="K41" t="n">
-        <v>159.3805113695716</v>
+        <v>179.3130837563719</v>
       </c>
       <c r="L41" t="n">
-        <v>197.7256177428234</v>
+        <v>222.453736347267</v>
       </c>
       <c r="M41" t="n">
         <v>220.0078473867499</v>
       </c>
       <c r="N41" t="n">
-        <v>223.5678043685904</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O41" t="n">
-        <v>211.108738028713</v>
+        <v>237.5105870759031</v>
       </c>
       <c r="P41" t="n">
-        <v>180.1764237342343</v>
+        <v>202.7097910676452</v>
       </c>
       <c r="Q41" t="n">
-        <v>135.3049905931297</v>
+        <v>152.2266110354129</v>
       </c>
       <c r="R41" t="n">
-        <v>78.70590330331341</v>
+        <v>88.54908363559406</v>
       </c>
       <c r="S41" t="n">
-        <v>28.5517007386505</v>
+        <v>32.12245626483752</v>
       </c>
       <c r="T41" t="n">
-        <v>5.484808337177948</v>
+        <v>6.170753803590836</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1002363602453993</v>
+        <v>0.1127721997229621</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6703897607686119</v>
+        <v>0.7542305786895992</v>
       </c>
       <c r="H42" t="n">
-        <v>6.474553742160015</v>
+        <v>7.284279536291656</v>
       </c>
       <c r="I42" t="n">
-        <v>23.08140185102458</v>
+        <v>25.96802650312875</v>
       </c>
       <c r="J42" t="n">
-        <v>63.33713086279241</v>
+        <v>71.25824954189763</v>
       </c>
       <c r="K42" t="n">
-        <v>108.2532448342894</v>
+        <v>121.7916983141008</v>
       </c>
       <c r="L42" t="n">
-        <v>145.559846959869</v>
+        <v>106.2172906491666</v>
       </c>
       <c r="M42" t="n">
-        <v>169.8614757877311</v>
+        <v>86.78770803595184</v>
       </c>
       <c r="N42" t="n">
-        <v>174.3572036132365</v>
+        <v>67.45823659255106</v>
       </c>
       <c r="O42" t="n">
         <v>106.1428044880503</v>
@@ -34231,19 +34231,19 @@
         <v>113.1372509970743</v>
       </c>
       <c r="Q42" t="n">
-        <v>85.57466490091966</v>
+        <v>96.27687176395656</v>
       </c>
       <c r="R42" t="n">
-        <v>41.62297128701962</v>
+        <v>46.82845645583321</v>
       </c>
       <c r="S42" t="n">
-        <v>12.45219577568013</v>
+        <v>14.00950219627391</v>
       </c>
       <c r="T42" t="n">
-        <v>2.70214118485243</v>
+        <v>3.040078516735708</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0441045895242508</v>
+        <v>0.04962043280852629</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5620322555767913</v>
+        <v>0.6323215809261379</v>
       </c>
       <c r="H43" t="n">
-        <v>4.996977690491839</v>
+        <v>5.621913692234211</v>
       </c>
       <c r="I43" t="n">
-        <v>16.9018427404366</v>
+        <v>19.0156344518515</v>
       </c>
       <c r="J43" t="n">
-        <v>39.73568046927914</v>
+        <v>44.70513577147795</v>
       </c>
       <c r="K43" t="n">
-        <v>65.29792932973992</v>
+        <v>73.46427094760037</v>
       </c>
       <c r="L43" t="n">
-        <v>83.55886825184406</v>
+        <v>94.00897394969145</v>
       </c>
       <c r="M43" t="n">
-        <v>88.10111075373283</v>
+        <v>99.11928199917631</v>
       </c>
       <c r="N43" t="n">
-        <v>86.00626325567394</v>
+        <v>96.76244701572442</v>
       </c>
       <c r="O43" t="n">
-        <v>79.44070463370868</v>
+        <v>89.37578127490541</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97524661994207</v>
+        <v>76.47642102401214</v>
       </c>
       <c r="Q43" t="n">
-        <v>47.06253732834386</v>
+        <v>52.94830983555142</v>
       </c>
       <c r="R43" t="n">
-        <v>25.27101396438917</v>
+        <v>28.43147762964252</v>
       </c>
       <c r="S43" t="n">
-        <v>9.794689399460985</v>
+        <v>11.01964064214005</v>
       </c>
       <c r="T43" t="n">
-        <v>2.40141054655538</v>
+        <v>2.701737663957134</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0306563048496432</v>
+        <v>0.03449026805051665</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,10 +34365,10 @@
         <v>14.43660363015983</v>
       </c>
       <c r="I44" t="n">
-        <v>54.34562787274376</v>
+        <v>54.34562787274377</v>
       </c>
       <c r="J44" t="n">
-        <v>119.6424935779595</v>
+        <v>119.6424935779596</v>
       </c>
       <c r="K44" t="n">
         <v>179.3130837563719</v>
@@ -34377,10 +34377,10 @@
         <v>222.453736347267</v>
       </c>
       <c r="M44" t="n">
-        <v>247.5226439325573</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N44" t="n">
-        <v>251.5278190883432</v>
+        <v>221.8064051628984</v>
       </c>
       <c r="O44" t="n">
         <v>237.5105870759031</v>
@@ -34392,13 +34392,13 @@
         <v>152.2266110354129</v>
       </c>
       <c r="R44" t="n">
-        <v>88.54908363559406</v>
+        <v>88.54908363559407</v>
       </c>
       <c r="S44" t="n">
         <v>32.12245626483752</v>
       </c>
       <c r="T44" t="n">
-        <v>6.170753803590836</v>
+        <v>6.170753803590837</v>
       </c>
       <c r="U44" t="n">
         <v>0.1127721997229621</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7542305786895992</v>
+        <v>0.7542305786895993</v>
       </c>
       <c r="H45" t="n">
-        <v>7.284279536291656</v>
+        <v>7.284279536291657</v>
       </c>
       <c r="I45" t="n">
         <v>25.96802650312875</v>
@@ -34456,19 +34456,19 @@
         <v>106.2172906491666</v>
       </c>
       <c r="M45" t="n">
-        <v>86.78770803595184</v>
+        <v>191.1048268899041</v>
       </c>
       <c r="N45" t="n">
         <v>67.45823659255106</v>
       </c>
       <c r="O45" t="n">
-        <v>179.4506412376083</v>
+        <v>106.1428044880503</v>
       </c>
       <c r="P45" t="n">
         <v>113.1372509970743</v>
       </c>
       <c r="Q45" t="n">
-        <v>96.27687176395656</v>
+        <v>96.27687176395658</v>
       </c>
       <c r="R45" t="n">
         <v>46.82845645583321</v>
@@ -34520,7 +34520,7 @@
         <v>0.6323215809261379</v>
       </c>
       <c r="H46" t="n">
-        <v>5.621913692234211</v>
+        <v>5.621913692234212</v>
       </c>
       <c r="I46" t="n">
         <v>19.0156344518515</v>
@@ -34532,22 +34532,22 @@
         <v>73.46427094760037</v>
       </c>
       <c r="L46" t="n">
-        <v>94.00897394969145</v>
+        <v>94.00897394969147</v>
       </c>
       <c r="M46" t="n">
         <v>99.11928199917631</v>
       </c>
       <c r="N46" t="n">
-        <v>96.76244701572442</v>
+        <v>96.76244701572443</v>
       </c>
       <c r="O46" t="n">
-        <v>89.37578127490541</v>
+        <v>89.37578127490542</v>
       </c>
       <c r="P46" t="n">
         <v>76.47642102401214</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.94830983555142</v>
+        <v>52.94830983555143</v>
       </c>
       <c r="R46" t="n">
         <v>28.43147762964252</v>
